--- a/documentatie/urenlijst_met_logboek.xlsx
+++ b/documentatie/urenlijst_met_logboek.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="JP" sheetId="4" r:id="rId1"/>
     <sheet name="Lukasz" sheetId="2" r:id="rId2"/>
     <sheet name="Youssef" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -251,7 +251,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -724,24 +724,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -769,6 +751,33 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -790,12 +799,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -812,9 +815,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1101,29 +1101,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30:J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="54"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1170,13 +1170,13 @@
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="41"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1190,13 +1190,13 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="6"/>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="53"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1207,13 +1207,13 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1224,13 +1224,13 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1242,13 +1242,13 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="44"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1259,13 +1259,13 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="48" t="s">
+      <c r="O10" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1277,7 +1277,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1289,7 +1289,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1301,7 +1301,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1313,10 +1313,10 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1324,12 +1324,12 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>20</v>
@@ -1339,7 +1339,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -1351,7 +1351,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="17" t="s">
         <v>23</v>
@@ -1365,7 +1365,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="18" t="s">
@@ -1379,105 +1379,105 @@
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="20"/>
@@ -1489,7 +1489,7 @@
       <c r="I27" s="20"/>
       <c r="J27" s="21"/>
     </row>
-    <row r="28" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="22" t="s">
@@ -1503,105 +1503,105 @@
       <c r="I28" s="20"/>
       <c r="J28" s="21"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="41"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="21"/>
@@ -1613,7 +1613,7 @@
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
     </row>
-    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="22" t="s">
@@ -1627,105 +1627,105 @@
       <c r="I37" s="20"/>
       <c r="J37" s="21"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="20"/>
@@ -1737,7 +1737,7 @@
       <c r="I45" s="20"/>
       <c r="J45" s="21"/>
     </row>
-    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="22" t="s">
@@ -1751,105 +1751,105 @@
       <c r="I46" s="20"/>
       <c r="J46" s="21"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="26"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="21"/>
@@ -1861,7 +1861,7 @@
       <c r="I54" s="21"/>
       <c r="J54" s="21"/>
     </row>
-    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="22" t="s">
@@ -1875,97 +1875,97 @@
       <c r="I55" s="20"/>
       <c r="J55" s="21"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="26"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="26"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C59" s="27" t="s">
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C59" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="29"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C60" s="30" t="s">
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C60" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C61" s="30" t="s">
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C61" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C62" s="33" t="s">
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="26"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C62" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="35"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C63" s="23"/>
       <c r="D63" s="23"/>
       <c r="E63" s="23"/>
@@ -1975,7 +1975,7 @@
       <c r="I63" s="23"/>
       <c r="J63" s="23"/>
     </row>
-    <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="22" t="s">
         <v>36</v>
       </c>
@@ -1987,91 +1987,91 @@
       <c r="I64" s="20"/>
       <c r="J64" s="21"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="36" t="s">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C65" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="24" t="s">
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C66" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="26"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="24" t="s">
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C67" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="26"/>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="27" t="s">
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C68" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="29"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="30" t="s">
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="41"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C69" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="30" t="s">
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="26"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C70" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="32"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="33" t="s">
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="26"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C71" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="35"/>
-    </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C72" s="23"/>
       <c r="D72" s="23"/>
       <c r="E72" s="23"/>
@@ -2081,7 +2081,7 @@
       <c r="I72" s="23"/>
       <c r="J72" s="23"/>
     </row>
-    <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="22" t="s">
         <v>37</v>
       </c>
@@ -2093,91 +2093,91 @@
       <c r="I73" s="20"/>
       <c r="J73" s="21"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C74" s="36" t="s">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C74" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="38"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C75" s="24" t="s">
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="32"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C75" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="26"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C76" s="24" t="s">
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="38"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C76" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="26"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C77" s="27" t="s">
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="38"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C77" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="29"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C78" s="30" t="s">
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="41"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C78" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="32"/>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C79" s="30" t="s">
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C79" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="32"/>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C80" s="33" t="s">
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="26"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C80" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="35"/>
-    </row>
-    <row r="81" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C81" s="23"/>
       <c r="D81" s="23"/>
       <c r="E81" s="23"/>
@@ -2187,7 +2187,7 @@
       <c r="I81" s="23"/>
       <c r="J81" s="23"/>
     </row>
-    <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="22" t="s">
         <v>39</v>
       </c>
@@ -2199,91 +2199,91 @@
       <c r="I82" s="20"/>
       <c r="J82" s="21"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C83" s="36" t="s">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C83" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="38"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C84" s="24" t="s">
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="32"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C84" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="26"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C85" s="24" t="s">
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="38"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C85" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C86" s="27" t="s">
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="38"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C86" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="29"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C87" s="30" t="s">
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="41"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C87" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="32"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C88" s="30" t="s">
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="26"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C88" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="32"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C89" s="33" t="s">
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="26"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C89" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="35"/>
-    </row>
-    <row r="90" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="29"/>
+    </row>
+    <row r="90" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C90" s="23"/>
       <c r="D90" s="23"/>
       <c r="E90" s="23"/>
@@ -2293,7 +2293,7 @@
       <c r="I90" s="23"/>
       <c r="J90" s="23"/>
     </row>
-    <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="22" t="s">
         <v>38</v>
       </c>
@@ -2305,100 +2305,147 @@
       <c r="I91" s="20"/>
       <c r="J91" s="21"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C92" s="36" t="s">
+    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C92" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="38"/>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C93" s="24" t="s">
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C93" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="26"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C94" s="24" t="s">
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="38"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C94" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="26"/>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C95" s="27" t="s">
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="38"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C95" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="29"/>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C96" s="30" t="s">
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="41"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C96" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="32"/>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C97" s="30" t="s">
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="26"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C97" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="32"/>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C98" s="33" t="s">
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="26"/>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C98" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="35"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -2408,90 +2455,43 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="54"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -2540,13 +2540,13 @@
       <c r="J5" s="16">
         <v>2</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="41"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2558,13 +2558,13 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="6"/>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="53"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
@@ -2575,13 +2575,13 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
@@ -2592,13 +2592,13 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -2610,13 +2610,13 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="44"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -2627,13 +2627,13 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="48" t="s">
+      <c r="O10" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -2645,7 +2645,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
@@ -2657,7 +2657,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -2669,7 +2669,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -2681,10 +2681,10 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2692,12 +2692,12 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>18</v>
@@ -2707,7 +2707,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -2719,7 +2719,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="17" t="s">
         <v>23</v>
@@ -2733,7 +2733,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="18" t="s">
@@ -2747,105 +2747,105 @@
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
@@ -2857,7 +2857,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="18" t="s">
@@ -2871,105 +2871,105 @@
       <c r="I28" s="9"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="41"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -2981,7 +2981,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="18" t="s">
@@ -2995,105 +2995,105 @@
       <c r="I37" s="9"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="9"/>
@@ -3105,7 +3105,7 @@
       <c r="I45" s="9"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="18" t="s">
@@ -3119,105 +3119,105 @@
       <c r="I46" s="9"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="26"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -3229,7 +3229,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="18" t="s">
@@ -3243,97 +3243,97 @@
       <c r="I55" s="9"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="26"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="26"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C59" s="27" t="s">
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C59" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="29"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C60" s="30" t="s">
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C60" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C61" s="30" t="s">
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C61" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C62" s="33" t="s">
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="26"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C62" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="35"/>
-    </row>
-    <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
+    </row>
+    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="18" t="s">
         <v>36</v>
       </c>
@@ -3345,91 +3345,91 @@
       <c r="I64" s="9"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="36" t="s">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C65" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="24" t="s">
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C66" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="26"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="24" t="s">
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C67" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="26"/>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="27" t="s">
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C68" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="29"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="30" t="s">
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="41"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C69" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="30" t="s">
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="26"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C70" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="32"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="33" t="s">
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="26"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C71" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="35"/>
-    </row>
-    <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
+    </row>
+    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="18" t="s">
         <v>37</v>
       </c>
@@ -3441,91 +3441,91 @@
       <c r="I73" s="9"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C74" s="36" t="s">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C74" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="38"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C75" s="24" t="s">
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="32"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C75" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="26"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C76" s="24" t="s">
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="38"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C76" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="26"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C77" s="27" t="s">
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="38"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C77" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="29"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C78" s="30" t="s">
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="41"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C78" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="32"/>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C79" s="30" t="s">
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C79" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="32"/>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C80" s="33" t="s">
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="26"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C80" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="35"/>
-    </row>
-    <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
+    </row>
+    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="18" t="s">
         <v>39</v>
       </c>
@@ -3537,91 +3537,91 @@
       <c r="I82" s="9"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C83" s="36" t="s">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C83" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="38"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C84" s="24" t="s">
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="32"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C84" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="26"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C85" s="24" t="s">
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="38"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C85" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C86" s="27" t="s">
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="38"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C86" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="29"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C87" s="30" t="s">
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="41"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C87" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="32"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C88" s="30" t="s">
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="26"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C88" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="32"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C89" s="33" t="s">
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="26"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C89" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="35"/>
-    </row>
-    <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="29"/>
+    </row>
+    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="18" t="s">
         <v>38</v>
       </c>
@@ -3633,100 +3633,147 @@
       <c r="I91" s="9"/>
       <c r="J91" s="6"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C92" s="36" t="s">
+    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C92" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="38"/>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C93" s="24" t="s">
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C93" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="26"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C94" s="24" t="s">
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="38"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C94" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="26"/>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C95" s="27" t="s">
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="38"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C95" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="29"/>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C96" s="30" t="s">
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="41"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C96" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="32"/>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C97" s="30" t="s">
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="26"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C97" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="32"/>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C98" s="33" t="s">
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="26"/>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C98" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="35"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -3736,90 +3783,43 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="54"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -3870,17 +3870,19 @@
       <c r="J5" s="16">
         <v>4</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="41"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="16">
+        <v>4</v>
+      </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -3888,13 +3890,13 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="6"/>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="53"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
@@ -3905,13 +3907,13 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
@@ -3922,13 +3924,13 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -3940,13 +3942,13 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="44"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -3957,13 +3959,13 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="48" t="s">
+      <c r="O10" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -3975,7 +3977,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
@@ -3987,7 +3989,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -3999,7 +4001,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -4011,10 +4013,10 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -4022,22 +4024,22 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -4049,7 +4051,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="17" t="s">
         <v>23</v>
@@ -4063,7 +4065,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="18" t="s">
@@ -4077,105 +4079,105 @@
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
@@ -4187,7 +4189,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="18" t="s">
@@ -4201,105 +4203,105 @@
       <c r="I28" s="9"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="41"/>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -4311,7 +4313,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="18" t="s">
@@ -4325,105 +4327,105 @@
       <c r="I37" s="9"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="9"/>
@@ -4435,7 +4437,7 @@
       <c r="I45" s="9"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="18" t="s">
@@ -4449,105 +4451,105 @@
       <c r="I46" s="9"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="26"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -4559,7 +4561,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="18" t="s">
@@ -4573,97 +4575,97 @@
       <c r="I55" s="9"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="26"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="26"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C59" s="27" t="s">
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C59" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="29"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C60" s="30" t="s">
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C60" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C61" s="30" t="s">
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C61" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C62" s="33" t="s">
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="26"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C62" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="35"/>
-    </row>
-    <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
+    </row>
+    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="18" t="s">
         <v>36</v>
       </c>
@@ -4675,91 +4677,91 @@
       <c r="I64" s="9"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="36" t="s">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C65" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="24" t="s">
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C66" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="26"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="24" t="s">
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C67" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="26"/>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="27" t="s">
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C68" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="29"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="30" t="s">
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="41"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C69" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="30" t="s">
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="26"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C70" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="32"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="33" t="s">
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="26"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C71" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="35"/>
-    </row>
-    <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
+    </row>
+    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="18" t="s">
         <v>37</v>
       </c>
@@ -4771,91 +4773,91 @@
       <c r="I73" s="9"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C74" s="36" t="s">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C74" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="38"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C75" s="24" t="s">
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="32"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C75" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="26"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C76" s="24" t="s">
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="38"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C76" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="26"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C77" s="27" t="s">
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="38"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C77" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="29"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C78" s="30" t="s">
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="41"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C78" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="32"/>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C79" s="30" t="s">
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C79" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="32"/>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C80" s="33" t="s">
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="26"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C80" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="35"/>
-    </row>
-    <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
+    </row>
+    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="18" t="s">
         <v>39</v>
       </c>
@@ -4867,91 +4869,91 @@
       <c r="I82" s="9"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C83" s="36" t="s">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C83" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="38"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C84" s="24" t="s">
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="32"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C84" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="26"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C85" s="24" t="s">
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="38"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C85" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C86" s="27" t="s">
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="38"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C86" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="29"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C87" s="30" t="s">
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="41"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C87" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="32"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C88" s="30" t="s">
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="26"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C88" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="32"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C89" s="33" t="s">
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="26"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C89" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="35"/>
-    </row>
-    <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="29"/>
+    </row>
+    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="18" t="s">
         <v>38</v>
       </c>
@@ -4963,91 +4965,91 @@
       <c r="I91" s="9"/>
       <c r="J91" s="6"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C92" s="36" t="s">
+    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C92" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="38"/>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C93" s="24" t="s">
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C93" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="26"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C94" s="24" t="s">
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="38"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C94" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="26"/>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C95" s="27" t="s">
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="38"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C95" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="29"/>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C96" s="30" t="s">
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="41"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C96" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="32"/>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C97" s="30" t="s">
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="26"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C97" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="32"/>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C98" s="33" t="s">
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="26"/>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C98" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="35"/>
-    </row>
-    <row r="100" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="29"/>
+    </row>
+    <row r="100" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
@@ -5057,7 +5059,7 @@
       <c r="I100" s="9"/>
       <c r="J100" s="6"/>
     </row>
-    <row r="101" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
@@ -5067,7 +5069,7 @@
       <c r="I101" s="13"/>
       <c r="J101" s="13"/>
     </row>
-    <row r="102" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
@@ -5077,7 +5079,7 @@
       <c r="I102" s="13"/>
       <c r="J102" s="13"/>
     </row>
-    <row r="103" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
@@ -5087,7 +5089,7 @@
       <c r="I103" s="13"/>
       <c r="J103" s="13"/>
     </row>
-    <row r="104" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
@@ -5097,7 +5099,7 @@
       <c r="I104" s="11"/>
       <c r="J104" s="11"/>
     </row>
-    <row r="105" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
@@ -5107,7 +5109,7 @@
       <c r="I105" s="12"/>
       <c r="J105" s="12"/>
     </row>
-    <row r="106" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
@@ -5117,7 +5119,7 @@
       <c r="I106" s="12"/>
       <c r="J106" s="12"/>
     </row>
-    <row r="107" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C107" s="14"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
@@ -5129,46 +5131,22 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="C69:J69"/>
@@ -5185,22 +5163,46 @@
     <mergeCell ref="C59:J59"/>
     <mergeCell ref="C60:J60"/>
     <mergeCell ref="C49:J49"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentatie/urenlijst_met_logboek.xlsx
+++ b/documentatie/urenlijst_met_logboek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JP" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="69">
   <si>
     <t>Dag:</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>Maandag: agenda opgestelt en vergadering gehouden/ begin gemaakt met PVA(planning)</t>
+  </si>
+  <si>
+    <t>Maandag: Vergadering gehouden, begonnen aan de PvA, vooronderzoek afgerond, huisstijl geupdatet en bestandsnamen geupdatet.</t>
+  </si>
+  <si>
+    <t>Dinsdag: Gewerkt aan de PvA, notule finance geupdatet en mails geupdatet.</t>
   </si>
 </sst>
 </file>
@@ -724,6 +730,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -751,33 +775,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -799,6 +796,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -815,6 +818,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1105,17 +1111,17 @@
   <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:J30"/>
+      <selection activeCell="C24" sqref="C24:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
@@ -1170,11 +1176,11 @@
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -1183,18 +1189,20 @@
       <c r="D6" s="16">
         <v>4</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="16">
+        <v>4</v>
+      </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="6"/>
-      <c r="O6" s="52" t="s">
+      <c r="O6" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
@@ -1207,11 +1215,11 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -1224,11 +1232,11 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -1242,11 +1250,11 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -1259,11 +1267,11 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
@@ -1314,9 +1322,9 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1326,13 +1334,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -1382,100 +1390,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -1506,100 +1514,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -1630,100 +1638,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -1754,100 +1762,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -1878,92 +1886,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="32"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C63" s="23"/>
@@ -1988,88 +1996,88 @@
       <c r="J64" s="21"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="32"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="39" t="s">
+      <c r="C68" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="41"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C72" s="23"/>
@@ -2094,88 +2102,88 @@
       <c r="J73" s="21"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="30" t="s">
+      <c r="C74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="32"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="38"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="38"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="41"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="29"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C81" s="23"/>
@@ -2200,88 +2208,88 @@
       <c r="J82" s="21"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="32"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="26"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="38"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="39" t="s">
+      <c r="C86" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="41"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="29"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="24" t="s">
+      <c r="C87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="29"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
     </row>
     <row r="90" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C90" s="23"/>
@@ -2306,146 +2314,99 @@
       <c r="J91" s="21"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="38"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="26"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="36" t="s">
+      <c r="C94" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="38"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="26"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="39" t="s">
+      <c r="C95" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="41"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="29"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="26"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="29"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -2455,14 +2416,61 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2472,18 +2480,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
@@ -2540,29 +2548,33 @@
       <c r="J5" s="16">
         <v>2</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="D6" s="16">
+        <v>4</v>
+      </c>
+      <c r="E6" s="16">
+        <v>4</v>
+      </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="6"/>
-      <c r="O6" s="52" t="s">
+      <c r="O6" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
@@ -2575,11 +2587,11 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -2592,11 +2604,11 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -2610,11 +2622,11 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -2627,11 +2639,11 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
@@ -2682,9 +2694,9 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2694,13 +2706,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -2750,100 +2762,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -2874,100 +2886,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -2998,100 +3010,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -3122,100 +3134,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -3246,92 +3258,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="32"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="18" t="s">
@@ -3346,88 +3358,88 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="32"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="39" t="s">
+      <c r="C68" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="41"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
     </row>
     <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="18" t="s">
@@ -3442,88 +3454,88 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="30" t="s">
+      <c r="C74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="32"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="38"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="38"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="41"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="29"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
     </row>
     <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="18" t="s">
@@ -3538,88 +3550,88 @@
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="32"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="26"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="38"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="39" t="s">
+      <c r="C86" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="41"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="29"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="24" t="s">
+      <c r="C87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="29"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
     </row>
     <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="18" t="s">
@@ -3634,146 +3646,99 @@
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="38"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="26"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="36" t="s">
+      <c r="C94" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="38"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="26"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="39" t="s">
+      <c r="C95" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="41"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="29"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="26"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="29"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -3783,14 +3748,61 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3800,18 +3812,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
@@ -3870,11 +3882,11 @@
       <c r="J5" s="16">
         <v>4</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -3883,18 +3895,20 @@
       <c r="D6" s="16">
         <v>4</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="16">
+        <v>4</v>
+      </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="6"/>
-      <c r="O6" s="52" t="s">
+      <c r="O6" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
@@ -3907,11 +3921,11 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -3924,11 +3938,11 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -3942,11 +3956,11 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -3959,11 +3973,11 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
@@ -4014,9 +4028,9 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -4026,13 +4040,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -4082,100 +4096,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -4206,100 +4220,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
+      <c r="C29" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
+      <c r="C30" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -4330,100 +4344,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -4454,100 +4468,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -4578,92 +4592,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="32"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="18" t="s">
@@ -4678,88 +4692,88 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="32"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="39" t="s">
+      <c r="C68" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="41"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
     </row>
     <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="18" t="s">
@@ -4774,88 +4788,88 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="30" t="s">
+      <c r="C74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="32"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="38"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="38"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="41"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="29"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
     </row>
     <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="18" t="s">
@@ -4870,88 +4884,88 @@
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="32"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="26"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="38"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="39" t="s">
+      <c r="C86" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="41"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="29"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="24" t="s">
+      <c r="C87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="29"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
     </row>
     <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="18" t="s">
@@ -4966,88 +4980,88 @@
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="38"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="26"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="36" t="s">
+      <c r="C94" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="38"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="26"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="39" t="s">
+      <c r="C95" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="41"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="29"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="26"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="29"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
     </row>
     <row r="100" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C100" s="9"/>
@@ -5131,6 +5145,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
     <mergeCell ref="O6:Q6"/>
     <mergeCell ref="C87:J87"/>
     <mergeCell ref="O10:Q10"/>
@@ -5147,62 +5217,6 @@
     <mergeCell ref="C77:J77"/>
     <mergeCell ref="C78:J78"/>
     <mergeCell ref="C79:J79"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentatie/urenlijst_met_logboek.xlsx
+++ b/documentatie/urenlijst_met_logboek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="JP" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="71">
   <si>
     <t>Dag:</t>
   </si>
@@ -252,6 +252,12 @@
   </si>
   <si>
     <t>Dinsdag: Gewerkt aan de PvA, notule finance geupdatet en mails geupdatet.</t>
+  </si>
+  <si>
+    <t>Woensdag: Offerte geupdatet en notules interview bijgewerkt.</t>
+  </si>
+  <si>
+    <t>Donderdag: Mijn stuk van de PvA afgemaakt en notule vergadering gemaakt.</t>
   </si>
 </sst>
 </file>
@@ -730,24 +736,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -775,6 +763,33 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -796,12 +811,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -818,9 +827,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1110,18 +1116,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
@@ -1174,13 +1180,17 @@
       <c r="H5" s="16">
         <v>4</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="O5" s="39" t="s">
+      <c r="I5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="16">
+        <v>2</v>
+      </c>
+      <c r="O5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="41"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -1192,17 +1202,21 @@
       <c r="E6" s="16">
         <v>4</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="F6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="16">
+        <v>4</v>
+      </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="6"/>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
@@ -1215,11 +1229,11 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -1232,11 +1246,11 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -1250,11 +1264,11 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="44"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -1267,11 +1281,11 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="48" t="s">
+      <c r="O10" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
@@ -1322,9 +1336,9 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1334,13 +1348,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -1390,100 +1404,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -1514,100 +1528,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="41"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -1638,100 +1652,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -1762,100 +1776,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="26"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -1886,92 +1900,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="26"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="26"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="29"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="26"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="35"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C63" s="23"/>
@@ -1996,88 +2010,88 @@
       <c r="J64" s="21"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="36" t="s">
+      <c r="C65" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="26"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="26"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="29"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="41"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="30" t="s">
+      <c r="C69" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="26"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="30" t="s">
+      <c r="C70" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="32"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="26"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="35"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C72" s="23"/>
@@ -2102,88 +2116,88 @@
       <c r="J73" s="21"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="38"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="32"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="26"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="38"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="24" t="s">
+      <c r="C76" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="26"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="38"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="29"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="41"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="30" t="s">
+      <c r="C78" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="32"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="32"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="26"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="35"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C81" s="23"/>
@@ -2208,88 +2222,88 @@
       <c r="J82" s="21"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="38"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="32"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="24" t="s">
+      <c r="C84" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="26"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="38"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="38"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="27" t="s">
+      <c r="C86" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="29"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="41"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="30" t="s">
+      <c r="C87" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="32"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="26"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="30" t="s">
+      <c r="C88" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="32"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="26"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="33" t="s">
+      <c r="C89" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="35"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="29"/>
     </row>
     <row r="90" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C90" s="23"/>
@@ -2314,99 +2328,146 @@
       <c r="J91" s="21"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="38"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="24" t="s">
+      <c r="C93" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="26"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="38"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="24" t="s">
+      <c r="C94" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="26"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="38"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="27" t="s">
+      <c r="C95" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="29"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="41"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="32"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="26"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="30" t="s">
+      <c r="C97" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="32"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="26"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="33" t="s">
+      <c r="C98" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="35"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -2416,61 +2477,14 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2480,18 +2494,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
@@ -2544,15 +2558,17 @@
       <c r="H5" s="16">
         <v>4</v>
       </c>
-      <c r="I5" s="16"/>
+      <c r="I5" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="J5" s="16">
         <v>2</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="41"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -2564,17 +2580,21 @@
       <c r="E6" s="16">
         <v>4</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="6"/>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
@@ -2587,11 +2607,11 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -2604,11 +2624,11 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -2622,11 +2642,11 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="44"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -2639,11 +2659,11 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="48" t="s">
+      <c r="O10" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
@@ -2694,9 +2714,9 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2706,10 +2726,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>26</v>
@@ -2762,100 +2782,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -2886,100 +2906,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="41"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -3010,100 +3030,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -3134,100 +3154,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="26"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -3258,92 +3278,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="26"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="26"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="29"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="26"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="35"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="18" t="s">
@@ -3358,88 +3378,88 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="36" t="s">
+      <c r="C65" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="26"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="26"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="29"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="41"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="30" t="s">
+      <c r="C69" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="26"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="30" t="s">
+      <c r="C70" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="32"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="26"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="35"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
     </row>
     <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="18" t="s">
@@ -3454,88 +3474,88 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="38"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="32"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="26"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="38"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="24" t="s">
+      <c r="C76" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="26"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="38"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="29"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="41"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="30" t="s">
+      <c r="C78" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="32"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="32"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="26"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="35"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
     </row>
     <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="18" t="s">
@@ -3550,88 +3570,88 @@
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="38"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="32"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="24" t="s">
+      <c r="C84" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="26"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="38"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="38"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="27" t="s">
+      <c r="C86" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="29"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="41"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="30" t="s">
+      <c r="C87" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="32"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="26"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="30" t="s">
+      <c r="C88" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="32"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="26"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="33" t="s">
+      <c r="C89" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="35"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="29"/>
     </row>
     <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="18" t="s">
@@ -3646,99 +3666,146 @@
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="38"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="24" t="s">
+      <c r="C93" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="26"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="38"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="24" t="s">
+      <c r="C94" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="26"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="38"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="27" t="s">
+      <c r="C95" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="29"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="41"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="32"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="26"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="30" t="s">
+      <c r="C97" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="32"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="26"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="33" t="s">
+      <c r="C98" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="35"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -3748,61 +3815,14 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3812,18 +3832,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
@@ -3882,11 +3902,11 @@
       <c r="J5" s="16">
         <v>4</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="41"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -3898,17 +3918,21 @@
       <c r="E6" s="16">
         <v>4</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="16">
+        <v>4</v>
+      </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="6"/>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
@@ -3921,11 +3945,11 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -3938,11 +3962,11 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -3956,11 +3980,11 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="44"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -3973,11 +3997,11 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="48" t="s">
+      <c r="O10" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
@@ -4028,9 +4052,9 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -4040,13 +4064,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -4096,100 +4120,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -4220,100 +4244,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
+      <c r="C31" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
+      <c r="C32" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="41"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -4344,100 +4368,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -4468,100 +4492,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="26"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -4592,92 +4616,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="26"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="26"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="29"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="26"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="35"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="18" t="s">
@@ -4692,88 +4716,88 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="36" t="s">
+      <c r="C65" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="26"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="26"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="29"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="41"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="30" t="s">
+      <c r="C69" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="26"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="30" t="s">
+      <c r="C70" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="32"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="26"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="35"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
     </row>
     <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="18" t="s">
@@ -4788,88 +4812,88 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="38"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="32"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="26"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="38"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="24" t="s">
+      <c r="C76" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="26"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="38"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="29"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="41"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="30" t="s">
+      <c r="C78" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="32"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="32"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="26"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="35"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
     </row>
     <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="18" t="s">
@@ -4884,88 +4908,88 @@
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="38"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="32"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="24" t="s">
+      <c r="C84" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="26"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="38"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="38"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="27" t="s">
+      <c r="C86" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="29"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="41"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="30" t="s">
+      <c r="C87" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="32"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="26"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="30" t="s">
+      <c r="C88" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="32"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="26"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="33" t="s">
+      <c r="C89" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="35"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="29"/>
     </row>
     <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="18" t="s">
@@ -4980,88 +5004,88 @@
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="38"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="24" t="s">
+      <c r="C93" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="26"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="38"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="24" t="s">
+      <c r="C94" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="26"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="38"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="27" t="s">
+      <c r="C95" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="29"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="41"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="32"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="26"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="30" t="s">
+      <c r="C97" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="32"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="26"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="33" t="s">
+      <c r="C98" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="35"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="29"/>
     </row>
     <row r="100" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C100" s="9"/>
@@ -5145,46 +5169,22 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="C69:J69"/>
@@ -5201,22 +5201,46 @@
     <mergeCell ref="C59:J59"/>
     <mergeCell ref="C60:J60"/>
     <mergeCell ref="C49:J49"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentatie/urenlijst_met_logboek.xlsx
+++ b/documentatie/urenlijst_met_logboek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="JP" sheetId="4" r:id="rId1"/>
@@ -257,7 +257,7 @@
     <t>Woensdag: Offerte geupdatet en notules interview bijgewerkt.</t>
   </si>
   <si>
-    <t>Donderdag: Mijn stuk van de PvA afgemaakt en notule vergadering gemaakt.</t>
+    <t>Donderdag: Mijn stuk van de PvA afgemaakt, ontwikkelingsmethode gemaakt, bezig met prototypes, bezig met de powerpoint van de prototypes en notule vergadering gemaakt.</t>
   </si>
 </sst>
 </file>
@@ -699,7 +699,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -828,6 +828,36 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1116,7 +1146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -3832,8 +3862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3922,7 +3952,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="16">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
@@ -4070,7 +4100,7 @@
       <c r="D16" s="34"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -4244,91 +4274,91 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="57"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="60"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="60"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="63"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="60"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="60"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="64" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="28"/>

--- a/documentatie/urenlijst_met_logboek.xlsx
+++ b/documentatie/urenlijst_met_logboek.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JP" sheetId="4" r:id="rId1"/>
     <sheet name="Lukasz" sheetId="2" r:id="rId2"/>
     <sheet name="Youssef" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="78">
   <si>
     <t>Dag:</t>
   </si>
@@ -259,11 +259,32 @@
   <si>
     <t>Donderdag: Mijn stuk van de PvA afgemaakt, ontwikkelingsmethode gemaakt, bezig met prototypes, bezig met de powerpoint van de prototypes en notule vergadering gemaakt.</t>
   </si>
+  <si>
+    <t>Maandag: Gestart met PvE en advise rapport</t>
+  </si>
+  <si>
+    <t>Dinsdag: Verder gewerekt aan PvE</t>
+  </si>
+  <si>
+    <t>Woensdag: PvE gemaakt en verder begonnen te werken met advise rapport</t>
+  </si>
+  <si>
+    <t>Donderdag: Ziek</t>
+  </si>
+  <si>
+    <t>Vrijdag: Ziek</t>
+  </si>
+  <si>
+    <t>Zaterdag: Ziek</t>
+  </si>
+  <si>
+    <t>Zondag: Ziek</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -736,6 +757,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -763,33 +802,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -811,6 +823,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -829,6 +847,21 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -839,15 +872,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -855,9 +879,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1143,29 +1164,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="47"/>
+      <c r="C1" s="54"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +1212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1216,13 +1237,13 @@
       <c r="J5" s="16">
         <v>2</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1242,13 +1263,13 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="6"/>
-      <c r="O6" s="52" t="s">
+      <c r="O6" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1259,13 +1280,13 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1276,13 +1297,13 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1294,13 +1315,13 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,13 +1332,13 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1329,7 +1350,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1341,7 +1362,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1353,7 +1374,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1365,10 +1386,10 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1376,12 +1397,12 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>30</v>
@@ -1391,7 +1412,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -1403,7 +1424,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
       <c r="B18" s="17" t="s">
         <v>23</v>
@@ -1417,7 +1438,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="18" t="s">
@@ -1431,105 +1452,105 @@
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="20"/>
@@ -1541,7 +1562,7 @@
       <c r="I27" s="20"/>
       <c r="J27" s="21"/>
     </row>
-    <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="22" t="s">
@@ -1555,105 +1576,105 @@
       <c r="I28" s="20"/>
       <c r="J28" s="21"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="21"/>
@@ -1665,7 +1686,7 @@
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
     </row>
-    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="22" t="s">
@@ -1679,105 +1700,105 @@
       <c r="I37" s="20"/>
       <c r="J37" s="21"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="20"/>
@@ -1789,7 +1810,7 @@
       <c r="I45" s="20"/>
       <c r="J45" s="21"/>
     </row>
-    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="22" t="s">
@@ -1803,105 +1824,105 @@
       <c r="I46" s="20"/>
       <c r="J46" s="21"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="21"/>
@@ -1913,7 +1934,7 @@
       <c r="I54" s="21"/>
       <c r="J54" s="21"/>
     </row>
-    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="22" t="s">
@@ -1927,97 +1948,97 @@
       <c r="I55" s="20"/>
       <c r="J55" s="21"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="32"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="39" t="s">
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C59" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="24" t="s">
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C60" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="24" t="s">
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="27" t="s">
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C63" s="23"/>
       <c r="D63" s="23"/>
       <c r="E63" s="23"/>
@@ -2027,7 +2048,7 @@
       <c r="I63" s="23"/>
       <c r="J63" s="23"/>
     </row>
-    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C64" s="22" t="s">
         <v>36</v>
       </c>
@@ -2039,91 +2060,91 @@
       <c r="I64" s="20"/>
       <c r="J64" s="21"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="30" t="s">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C65" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="32"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="36" t="s">
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="36" t="s">
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C67" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="39" t="s">
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C68" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="41"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="24" t="s">
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="24" t="s">
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="27" t="s">
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
-    </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C72" s="23"/>
       <c r="D72" s="23"/>
       <c r="E72" s="23"/>
@@ -2133,7 +2154,7 @@
       <c r="I72" s="23"/>
       <c r="J72" s="23"/>
     </row>
-    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C73" s="22" t="s">
         <v>37</v>
       </c>
@@ -2145,91 +2166,91 @@
       <c r="I73" s="20"/>
       <c r="J73" s="21"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="30" t="s">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="32"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="36" t="s">
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C75" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="38"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="36" t="s">
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="38"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="39" t="s">
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C77" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="41"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="24" t="s">
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="29"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="24" t="s">
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="27" t="s">
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
-    </row>
-    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C81" s="23"/>
       <c r="D81" s="23"/>
       <c r="E81" s="23"/>
@@ -2239,7 +2260,7 @@
       <c r="I81" s="23"/>
       <c r="J81" s="23"/>
     </row>
-    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C82" s="22" t="s">
         <v>39</v>
       </c>
@@ -2251,91 +2272,91 @@
       <c r="I82" s="20"/>
       <c r="J82" s="21"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="30" t="s">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C83" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="32"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="36" t="s">
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C84" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="36" t="s">
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="26"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="38"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="39" t="s">
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C86" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="41"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="24" t="s">
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="29"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="24" t="s">
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C88" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="27" t="s">
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="29"/>
-    </row>
-    <row r="90" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
+    </row>
+    <row r="90" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C90" s="23"/>
       <c r="D90" s="23"/>
       <c r="E90" s="23"/>
@@ -2345,7 +2366,7 @@
       <c r="I90" s="23"/>
       <c r="J90" s="23"/>
     </row>
-    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C91" s="22" t="s">
         <v>38</v>
       </c>
@@ -2357,147 +2378,100 @@
       <c r="I91" s="20"/>
       <c r="J91" s="21"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="30" t="s">
+    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C92" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="36" t="s">
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C93" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="38"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="36" t="s">
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="26"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C94" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="38"/>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="39" t="s">
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="26"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C95" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="41"/>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="24" t="s">
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="29"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C96" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="26"/>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="24" t="s">
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="27" t="s">
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="29"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -2507,43 +2481,90 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="47"/>
+      <c r="C1" s="54"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2569,7 +2590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -2594,13 +2615,13 @@
       <c r="J5" s="16">
         <v>2</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2620,13 +2641,13 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="6"/>
-      <c r="O6" s="52" t="s">
+      <c r="O6" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
@@ -2637,13 +2658,13 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
@@ -2654,13 +2675,13 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -2672,13 +2693,13 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -2689,13 +2710,13 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -2707,7 +2728,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
@@ -2719,7 +2740,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -2731,7 +2752,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -2743,10 +2764,10 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2754,12 +2775,12 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>26</v>
@@ -2769,7 +2790,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -2781,7 +2802,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
       <c r="B18" s="17" t="s">
         <v>23</v>
@@ -2795,7 +2816,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="18" t="s">
@@ -2809,105 +2830,105 @@
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
@@ -2919,7 +2940,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="18" t="s">
@@ -2933,105 +2954,105 @@
       <c r="I28" s="9"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C33" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C34" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C35" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -3043,7 +3064,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="18" t="s">
@@ -3057,105 +3078,105 @@
       <c r="I37" s="9"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="9"/>
@@ -3167,7 +3188,7 @@
       <c r="I45" s="9"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="18" t="s">
@@ -3181,105 +3202,105 @@
       <c r="I46" s="9"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -3291,7 +3312,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="18" t="s">
@@ -3305,97 +3326,97 @@
       <c r="I55" s="9"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="32"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="39" t="s">
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C59" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="24" t="s">
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C60" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="24" t="s">
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="27" t="s">
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
-    </row>
-    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
+    </row>
+    <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C64" s="18" t="s">
         <v>36</v>
       </c>
@@ -3407,91 +3428,91 @@
       <c r="I64" s="9"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="30" t="s">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C65" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="32"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="36" t="s">
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="36" t="s">
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C67" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="39" t="s">
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C68" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="41"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="24" t="s">
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="24" t="s">
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="27" t="s">
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
-    </row>
-    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
+    </row>
+    <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C73" s="18" t="s">
         <v>37</v>
       </c>
@@ -3503,91 +3524,91 @@
       <c r="I73" s="9"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="30" t="s">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="32"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="36" t="s">
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C75" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="38"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="36" t="s">
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="38"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="39" t="s">
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C77" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="41"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="24" t="s">
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="29"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="24" t="s">
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="27" t="s">
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
-    </row>
-    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
+    </row>
+    <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C82" s="18" t="s">
         <v>39</v>
       </c>
@@ -3599,91 +3620,91 @@
       <c r="I82" s="9"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="30" t="s">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C83" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="32"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="36" t="s">
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C84" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="36" t="s">
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="26"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="38"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="39" t="s">
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C86" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="41"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="24" t="s">
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="29"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="24" t="s">
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C88" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="27" t="s">
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="29"/>
-    </row>
-    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
+    </row>
+    <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C91" s="18" t="s">
         <v>38</v>
       </c>
@@ -3695,147 +3716,100 @@
       <c r="I91" s="9"/>
       <c r="J91" s="6"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="30" t="s">
+    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C92" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="36" t="s">
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C93" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="38"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="36" t="s">
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="26"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C94" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="38"/>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="39" t="s">
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="26"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C95" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="41"/>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="24" t="s">
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="29"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C96" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="26"/>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="24" t="s">
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="27" t="s">
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="29"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -3845,43 +3819,90 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="47"/>
+      <c r="C1" s="54"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3907,7 +3928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -3932,13 +3953,13 @@
       <c r="J5" s="16">
         <v>4</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3958,13 +3979,13 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="6"/>
-      <c r="O6" s="52" t="s">
+      <c r="O6" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
@@ -3975,13 +3996,13 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
@@ -3992,13 +4013,13 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -4010,13 +4031,13 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -4027,13 +4048,13 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -4045,7 +4066,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
@@ -4057,7 +4078,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -4069,7 +4090,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -4081,10 +4102,10 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -4092,12 +4113,12 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>46</v>
@@ -4107,7 +4128,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -4119,7 +4140,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
       <c r="B18" s="17" t="s">
         <v>23</v>
@@ -4133,7 +4154,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="18" t="s">
@@ -4147,105 +4168,105 @@
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
@@ -4257,7 +4278,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="18" t="s">
@@ -4271,105 +4292,105 @@
       <c r="I28" s="9"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="57"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="61"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="60"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="57"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="60"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="57"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="63"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="64"/>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="60"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="57"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="60"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="57"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -4381,7 +4402,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="18" t="s">
@@ -4395,105 +4416,105 @@
       <c r="I37" s="9"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="9"/>
@@ -4505,7 +4526,7 @@
       <c r="I45" s="9"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="18" t="s">
@@ -4519,105 +4540,105 @@
       <c r="I46" s="9"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -4629,7 +4650,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="18" t="s">
@@ -4643,97 +4664,97 @@
       <c r="I55" s="9"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="32"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="39" t="s">
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C59" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="24" t="s">
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C60" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="24" t="s">
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="27" t="s">
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
-    </row>
-    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
+    </row>
+    <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C64" s="18" t="s">
         <v>36</v>
       </c>
@@ -4745,91 +4766,91 @@
       <c r="I64" s="9"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="30" t="s">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C65" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="32"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="36" t="s">
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="36" t="s">
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C67" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="39" t="s">
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C68" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="41"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="24" t="s">
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="24" t="s">
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="27" t="s">
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
-    </row>
-    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
+    </row>
+    <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C73" s="18" t="s">
         <v>37</v>
       </c>
@@ -4841,91 +4862,91 @@
       <c r="I73" s="9"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="30" t="s">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="32"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="36" t="s">
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C75" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="38"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="36" t="s">
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="38"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="39" t="s">
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C77" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="41"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="24" t="s">
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="29"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="24" t="s">
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="27" t="s">
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
-    </row>
-    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
+    </row>
+    <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C82" s="18" t="s">
         <v>39</v>
       </c>
@@ -4937,91 +4958,91 @@
       <c r="I82" s="9"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="30" t="s">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C83" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="32"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="36" t="s">
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C84" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="36" t="s">
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="26"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="38"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="39" t="s">
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C86" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="41"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="24" t="s">
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="29"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="24" t="s">
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C88" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="27" t="s">
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="29"/>
-    </row>
-    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
+    </row>
+    <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C91" s="18" t="s">
         <v>38</v>
       </c>
@@ -5033,91 +5054,91 @@
       <c r="I91" s="9"/>
       <c r="J91" s="6"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="30" t="s">
+    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C92" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="36" t="s">
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C93" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="38"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="36" t="s">
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="26"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C94" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="38"/>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="39" t="s">
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="26"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C95" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="41"/>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="24" t="s">
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="29"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C96" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="26"/>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="24" t="s">
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="27" t="s">
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="29"/>
-    </row>
-    <row r="100" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
+    </row>
+    <row r="100" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
@@ -5127,7 +5148,7 @@
       <c r="I100" s="9"/>
       <c r="J100" s="6"/>
     </row>
-    <row r="101" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
@@ -5137,7 +5158,7 @@
       <c r="I101" s="13"/>
       <c r="J101" s="13"/>
     </row>
-    <row r="102" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
@@ -5147,7 +5168,7 @@
       <c r="I102" s="13"/>
       <c r="J102" s="13"/>
     </row>
-    <row r="103" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
@@ -5157,7 +5178,7 @@
       <c r="I103" s="13"/>
       <c r="J103" s="13"/>
     </row>
-    <row r="104" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
@@ -5167,7 +5188,7 @@
       <c r="I104" s="11"/>
       <c r="J104" s="11"/>
     </row>
-    <row r="105" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
@@ -5177,7 +5198,7 @@
       <c r="I105" s="12"/>
       <c r="J105" s="12"/>
     </row>
-    <row r="106" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
@@ -5187,7 +5208,7 @@
       <c r="I106" s="12"/>
       <c r="J106" s="12"/>
     </row>
-    <row r="107" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C107" s="14"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
@@ -5199,6 +5220,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
     <mergeCell ref="O6:Q6"/>
     <mergeCell ref="C87:J87"/>
     <mergeCell ref="O10:Q10"/>
@@ -5215,62 +5292,6 @@
     <mergeCell ref="C77:J77"/>
     <mergeCell ref="C78:J78"/>
     <mergeCell ref="C79:J79"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentatie/urenlijst_met_logboek.xlsx
+++ b/documentatie/urenlijst_met_logboek.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="JP" sheetId="4" r:id="rId1"/>
     <sheet name="Lukasz" sheetId="2" r:id="rId2"/>
     <sheet name="Youssef" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="82">
   <si>
     <t>Dag:</t>
   </si>
@@ -280,11 +280,23 @@
   <si>
     <t>Zondag: Ziek</t>
   </si>
+  <si>
+    <t>Vrijdag: planning en oplevering</t>
+  </si>
+  <si>
+    <t>Dinsdag: planning opstellen</t>
+  </si>
+  <si>
+    <t>Woensdag: stuk in de PvA gemaakt</t>
+  </si>
+  <si>
+    <t>Donderdag: stuk in de PvA gemaakt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -757,24 +769,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -802,6 +796,33 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -823,12 +844,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -847,8 +862,14 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -859,18 +880,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -879,6 +888,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1164,29 +1176,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="54"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +1224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1237,13 +1249,13 @@
       <c r="J5" s="16">
         <v>2</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="41"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1259,17 +1271,23 @@
       <c r="G6" s="16">
         <v>4</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="H6" s="16">
+        <v>4</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="16">
+        <v>2</v>
+      </c>
       <c r="K6" s="6"/>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="53"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1280,13 +1298,13 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1297,13 +1315,13 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1315,13 +1333,13 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="44"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1332,13 +1350,13 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="48" t="s">
+      <c r="O10" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1350,7 +1368,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1362,7 +1380,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1374,7 +1392,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1386,10 +1404,10 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1397,22 +1415,22 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -1424,7 +1442,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="17" t="s">
         <v>23</v>
@@ -1438,7 +1456,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="18" t="s">
@@ -1452,105 +1470,105 @@
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="20"/>
@@ -1562,7 +1580,7 @@
       <c r="I27" s="20"/>
       <c r="J27" s="21"/>
     </row>
-    <row r="28" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="22" t="s">
@@ -1576,105 +1594,105 @@
       <c r="I28" s="20"/>
       <c r="J28" s="21"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C30" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C31" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="41"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C33" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="21"/>
@@ -1686,7 +1704,7 @@
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
     </row>
-    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="22" t="s">
@@ -1700,105 +1718,105 @@
       <c r="I37" s="20"/>
       <c r="J37" s="21"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="20"/>
@@ -1810,7 +1828,7 @@
       <c r="I45" s="20"/>
       <c r="J45" s="21"/>
     </row>
-    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="22" t="s">
@@ -1824,105 +1842,105 @@
       <c r="I46" s="20"/>
       <c r="J46" s="21"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="26"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="21"/>
@@ -1934,7 +1952,7 @@
       <c r="I54" s="21"/>
       <c r="J54" s="21"/>
     </row>
-    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="22" t="s">
@@ -1948,97 +1966,97 @@
       <c r="I55" s="20"/>
       <c r="J55" s="21"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="26"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="26"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C59" s="27" t="s">
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C59" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="29"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C60" s="30" t="s">
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C60" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C61" s="30" t="s">
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C61" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C62" s="33" t="s">
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="26"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C62" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="35"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C63" s="23"/>
       <c r="D63" s="23"/>
       <c r="E63" s="23"/>
@@ -2048,7 +2066,7 @@
       <c r="I63" s="23"/>
       <c r="J63" s="23"/>
     </row>
-    <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="22" t="s">
         <v>36</v>
       </c>
@@ -2060,91 +2078,91 @@
       <c r="I64" s="20"/>
       <c r="J64" s="21"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="36" t="s">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C65" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="24" t="s">
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C66" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="26"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="24" t="s">
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C67" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="26"/>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="27" t="s">
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C68" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="29"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="30" t="s">
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="41"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C69" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="30" t="s">
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="26"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C70" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="32"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="33" t="s">
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="26"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C71" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="35"/>
-    </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C72" s="23"/>
       <c r="D72" s="23"/>
       <c r="E72" s="23"/>
@@ -2154,7 +2172,7 @@
       <c r="I72" s="23"/>
       <c r="J72" s="23"/>
     </row>
-    <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="22" t="s">
         <v>37</v>
       </c>
@@ -2166,91 +2184,91 @@
       <c r="I73" s="20"/>
       <c r="J73" s="21"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C74" s="36" t="s">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C74" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="38"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C75" s="24" t="s">
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="32"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C75" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="26"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C76" s="24" t="s">
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="38"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C76" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="26"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C77" s="27" t="s">
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="38"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C77" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="29"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C78" s="30" t="s">
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="41"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C78" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="32"/>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C79" s="30" t="s">
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C79" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="32"/>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C80" s="33" t="s">
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="26"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C80" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="35"/>
-    </row>
-    <row r="81" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C81" s="23"/>
       <c r="D81" s="23"/>
       <c r="E81" s="23"/>
@@ -2260,7 +2278,7 @@
       <c r="I81" s="23"/>
       <c r="J81" s="23"/>
     </row>
-    <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="22" t="s">
         <v>39</v>
       </c>
@@ -2272,91 +2290,91 @@
       <c r="I82" s="20"/>
       <c r="J82" s="21"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C83" s="36" t="s">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C83" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="38"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C84" s="24" t="s">
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="32"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C84" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="26"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C85" s="24" t="s">
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="38"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C85" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C86" s="27" t="s">
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="38"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C86" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="29"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C87" s="30" t="s">
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="41"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C87" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="32"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C88" s="30" t="s">
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="26"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C88" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="32"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C89" s="33" t="s">
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="26"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C89" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="35"/>
-    </row>
-    <row r="90" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="29"/>
+    </row>
+    <row r="90" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C90" s="23"/>
       <c r="D90" s="23"/>
       <c r="E90" s="23"/>
@@ -2366,7 +2384,7 @@
       <c r="I90" s="23"/>
       <c r="J90" s="23"/>
     </row>
-    <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="22" t="s">
         <v>38</v>
       </c>
@@ -2378,100 +2396,147 @@
       <c r="I91" s="20"/>
       <c r="J91" s="21"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C92" s="36" t="s">
+    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C92" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="38"/>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C93" s="24" t="s">
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C93" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="26"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C94" s="24" t="s">
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="38"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C94" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="26"/>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C95" s="27" t="s">
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="38"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C95" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="29"/>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C96" s="30" t="s">
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="41"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C96" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="32"/>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C97" s="30" t="s">
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="26"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C97" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="32"/>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C98" s="33" t="s">
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="26"/>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C98" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="35"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -2481,90 +2546,43 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="54"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2590,7 +2608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -2615,13 +2633,13 @@
       <c r="J5" s="16">
         <v>2</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="41"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2637,17 +2655,23 @@
       <c r="G6" s="16">
         <v>0</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="H6" s="16">
+        <v>0</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="K6" s="6"/>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="53"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
@@ -2658,13 +2682,13 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
@@ -2675,13 +2699,13 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -2693,13 +2717,13 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="44"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -2710,13 +2734,13 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="48" t="s">
+      <c r="O10" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -2728,7 +2752,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
@@ -2740,7 +2764,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -2752,7 +2776,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -2764,10 +2788,10 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2775,12 +2799,12 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>26</v>
@@ -2790,7 +2814,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -2802,7 +2826,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="17" t="s">
         <v>23</v>
@@ -2816,7 +2840,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="18" t="s">
@@ -2830,105 +2854,105 @@
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
@@ -2940,7 +2964,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="18" t="s">
@@ -2954,105 +2978,105 @@
       <c r="I28" s="9"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="41"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -3064,7 +3088,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="18" t="s">
@@ -3078,105 +3102,105 @@
       <c r="I37" s="9"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="9"/>
@@ -3188,7 +3212,7 @@
       <c r="I45" s="9"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="18" t="s">
@@ -3202,105 +3226,105 @@
       <c r="I46" s="9"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="26"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -3312,7 +3336,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="18" t="s">
@@ -3326,97 +3350,97 @@
       <c r="I55" s="9"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="26"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="26"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C59" s="27" t="s">
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C59" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="29"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C60" s="30" t="s">
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C60" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C61" s="30" t="s">
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C61" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C62" s="33" t="s">
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="26"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C62" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="35"/>
-    </row>
-    <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
+    </row>
+    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="18" t="s">
         <v>36</v>
       </c>
@@ -3428,91 +3452,91 @@
       <c r="I64" s="9"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="36" t="s">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C65" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="24" t="s">
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C66" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="26"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="24" t="s">
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C67" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="26"/>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="27" t="s">
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C68" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="29"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="30" t="s">
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="41"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C69" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="30" t="s">
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="26"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C70" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="32"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="33" t="s">
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="26"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C71" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="35"/>
-    </row>
-    <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
+    </row>
+    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="18" t="s">
         <v>37</v>
       </c>
@@ -3524,91 +3548,91 @@
       <c r="I73" s="9"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C74" s="36" t="s">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C74" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="38"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C75" s="24" t="s">
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="32"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C75" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="26"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C76" s="24" t="s">
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="38"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C76" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="26"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C77" s="27" t="s">
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="38"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C77" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="29"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C78" s="30" t="s">
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="41"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C78" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="32"/>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C79" s="30" t="s">
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C79" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="32"/>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C80" s="33" t="s">
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="26"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C80" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="35"/>
-    </row>
-    <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
+    </row>
+    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="18" t="s">
         <v>39</v>
       </c>
@@ -3620,91 +3644,91 @@
       <c r="I82" s="9"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C83" s="36" t="s">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C83" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="38"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C84" s="24" t="s">
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="32"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C84" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="26"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C85" s="24" t="s">
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="38"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C85" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C86" s="27" t="s">
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="38"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C86" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="29"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C87" s="30" t="s">
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="41"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C87" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="32"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C88" s="30" t="s">
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="26"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C88" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="32"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C89" s="33" t="s">
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="26"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C89" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="35"/>
-    </row>
-    <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="29"/>
+    </row>
+    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="18" t="s">
         <v>38</v>
       </c>
@@ -3716,100 +3740,147 @@
       <c r="I91" s="9"/>
       <c r="J91" s="6"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C92" s="36" t="s">
+    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C92" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="38"/>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C93" s="24" t="s">
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C93" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="26"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C94" s="24" t="s">
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="38"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C94" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="26"/>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C95" s="27" t="s">
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="38"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C95" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="29"/>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C96" s="30" t="s">
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="41"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C96" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="32"/>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C97" s="30" t="s">
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="26"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C97" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="32"/>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C98" s="33" t="s">
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="26"/>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C98" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="35"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -3819,90 +3890,43 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="54"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3928,7 +3952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -3953,13 +3977,13 @@
       <c r="J5" s="16">
         <v>4</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="41"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3975,17 +3999,23 @@
       <c r="G6" s="16">
         <v>11</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="H6" s="16">
+        <v>4</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="K6" s="6"/>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="53"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
@@ -3996,13 +4026,13 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
@@ -4013,13 +4043,13 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -4031,13 +4061,13 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="44"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -4048,13 +4078,13 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="48" t="s">
+      <c r="O10" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -4066,7 +4096,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
@@ -4078,7 +4108,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -4090,7 +4120,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -4102,10 +4132,10 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -4113,22 +4143,22 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -4140,7 +4170,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="17" t="s">
         <v>23</v>
@@ -4154,7 +4184,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="18" t="s">
@@ -4168,105 +4198,105 @@
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
@@ -4278,7 +4308,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="18" t="s">
@@ -4292,105 +4322,105 @@
       <c r="I28" s="9"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="61"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="57"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="57"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="60"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="57"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="60"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="64"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="63"/>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="57"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="60"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="57"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="60"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -4402,7 +4432,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="18" t="s">
@@ -4416,105 +4446,105 @@
       <c r="I37" s="9"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="9"/>
@@ -4526,7 +4556,7 @@
       <c r="I45" s="9"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="18" t="s">
@@ -4540,105 +4570,105 @@
       <c r="I46" s="9"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="26"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -4650,7 +4680,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="18" t="s">
@@ -4664,97 +4694,97 @@
       <c r="I55" s="9"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="26"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="26"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C59" s="27" t="s">
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C59" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="29"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C60" s="30" t="s">
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C60" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C61" s="30" t="s">
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C61" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C62" s="33" t="s">
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="26"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C62" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="35"/>
-    </row>
-    <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
+    </row>
+    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="18" t="s">
         <v>36</v>
       </c>
@@ -4766,91 +4796,91 @@
       <c r="I64" s="9"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="36" t="s">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C65" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="24" t="s">
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C66" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="26"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="24" t="s">
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C67" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="26"/>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="27" t="s">
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C68" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="29"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="30" t="s">
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="41"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C69" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="30" t="s">
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="26"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C70" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="32"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="33" t="s">
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="26"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C71" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="35"/>
-    </row>
-    <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
+    </row>
+    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="18" t="s">
         <v>37</v>
       </c>
@@ -4862,91 +4892,91 @@
       <c r="I73" s="9"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C74" s="36" t="s">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C74" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="38"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C75" s="24" t="s">
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="32"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C75" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="26"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C76" s="24" t="s">
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="38"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C76" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="26"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C77" s="27" t="s">
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="38"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C77" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="29"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C78" s="30" t="s">
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="41"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C78" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="32"/>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C79" s="30" t="s">
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C79" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="32"/>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C80" s="33" t="s">
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="26"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C80" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="35"/>
-    </row>
-    <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
+    </row>
+    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="18" t="s">
         <v>39</v>
       </c>
@@ -4958,91 +4988,91 @@
       <c r="I82" s="9"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C83" s="36" t="s">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C83" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="38"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C84" s="24" t="s">
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="32"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C84" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="26"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C85" s="24" t="s">
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="38"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C85" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C86" s="27" t="s">
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="38"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C86" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="29"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C87" s="30" t="s">
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="41"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C87" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="32"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C88" s="30" t="s">
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="26"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C88" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="32"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C89" s="33" t="s">
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="26"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C89" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="35"/>
-    </row>
-    <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="29"/>
+    </row>
+    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="18" t="s">
         <v>38</v>
       </c>
@@ -5054,91 +5084,91 @@
       <c r="I91" s="9"/>
       <c r="J91" s="6"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C92" s="36" t="s">
+    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C92" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="38"/>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C93" s="24" t="s">
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C93" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="26"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C94" s="24" t="s">
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="38"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C94" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="26"/>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C95" s="27" t="s">
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="38"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C95" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="29"/>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C96" s="30" t="s">
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="41"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C96" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="32"/>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C97" s="30" t="s">
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="26"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C97" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="32"/>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C98" s="33" t="s">
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="26"/>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C98" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="35"/>
-    </row>
-    <row r="100" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="29"/>
+    </row>
+    <row r="100" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
@@ -5148,7 +5178,7 @@
       <c r="I100" s="9"/>
       <c r="J100" s="6"/>
     </row>
-    <row r="101" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
@@ -5158,7 +5188,7 @@
       <c r="I101" s="13"/>
       <c r="J101" s="13"/>
     </row>
-    <row r="102" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
@@ -5168,7 +5198,7 @@
       <c r="I102" s="13"/>
       <c r="J102" s="13"/>
     </row>
-    <row r="103" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
@@ -5178,7 +5208,7 @@
       <c r="I103" s="13"/>
       <c r="J103" s="13"/>
     </row>
-    <row r="104" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
@@ -5188,7 +5218,7 @@
       <c r="I104" s="11"/>
       <c r="J104" s="11"/>
     </row>
-    <row r="105" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
@@ -5198,7 +5228,7 @@
       <c r="I105" s="12"/>
       <c r="J105" s="12"/>
     </row>
-    <row r="106" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
@@ -5208,7 +5238,7 @@
       <c r="I106" s="12"/>
       <c r="J106" s="12"/>
     </row>
-    <row r="107" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C107" s="14"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
@@ -5220,46 +5250,22 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="C69:J69"/>
@@ -5276,22 +5282,46 @@
     <mergeCell ref="C59:J59"/>
     <mergeCell ref="C60:J60"/>
     <mergeCell ref="C49:J49"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentatie/urenlijst_met_logboek.xlsx
+++ b/documentatie/urenlijst_met_logboek.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="83">
   <si>
     <t>Dag:</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>Donderdag: stuk in de PvA gemaakt</t>
+  </si>
+  <si>
+    <t>Vrijdag: Oplevering van het project, Jean-Pierre helpen met zijn stuk van de PvA</t>
   </si>
 </sst>
 </file>
@@ -769,6 +772,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -796,33 +817,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -844,6 +838,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -862,6 +862,21 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -872,15 +887,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -888,9 +894,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1180,17 +1183,17 @@
   <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C33" sqref="C33:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
@@ -1249,11 +1252,11 @@
       <c r="J5" s="16">
         <v>2</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -1281,11 +1284,11 @@
         <v>2</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="O6" s="52" t="s">
+      <c r="O6" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
@@ -1298,11 +1301,11 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -1315,11 +1318,11 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -1333,11 +1336,11 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -1350,11 +1353,11 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
@@ -1405,9 +1408,9 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1417,10 +1420,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>36</v>
@@ -1473,100 +1476,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -1597,100 +1600,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -1721,100 +1724,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -1845,100 +1848,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -1969,92 +1972,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="32"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C63" s="23"/>
@@ -2079,88 +2082,88 @@
       <c r="J64" s="21"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="32"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="39" t="s">
+      <c r="C68" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="41"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C72" s="23"/>
@@ -2185,88 +2188,88 @@
       <c r="J73" s="21"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="30" t="s">
+      <c r="C74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="32"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="38"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="38"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="41"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="29"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C81" s="23"/>
@@ -2291,88 +2294,88 @@
       <c r="J82" s="21"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="32"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="26"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="38"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="39" t="s">
+      <c r="C86" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="41"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="29"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="24" t="s">
+      <c r="C87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="29"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
     </row>
     <row r="90" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C90" s="23"/>
@@ -2397,146 +2400,99 @@
       <c r="J91" s="21"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="38"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="26"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="36" t="s">
+      <c r="C94" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="38"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="26"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="39" t="s">
+      <c r="C95" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="41"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="29"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="26"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="29"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -2546,14 +2502,61 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2570,11 +2573,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
@@ -2633,11 +2636,11 @@
       <c r="J5" s="16">
         <v>2</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -2665,11 +2668,11 @@
         <v>44</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="O6" s="52" t="s">
+      <c r="O6" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
@@ -2682,11 +2685,11 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -2699,11 +2702,11 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -2717,11 +2720,11 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -2734,11 +2737,11 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
@@ -2789,9 +2792,9 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2801,10 +2804,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>26</v>
@@ -2857,100 +2860,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -2981,100 +2984,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -3105,100 +3108,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -3229,100 +3232,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -3353,92 +3356,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="32"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="18" t="s">
@@ -3453,88 +3456,88 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="32"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="39" t="s">
+      <c r="C68" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="41"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
     </row>
     <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="18" t="s">
@@ -3549,88 +3552,88 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="30" t="s">
+      <c r="C74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="32"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="38"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="38"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="41"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="29"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
     </row>
     <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="18" t="s">
@@ -3645,88 +3648,88 @@
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="32"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="26"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="38"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="39" t="s">
+      <c r="C86" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="41"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="29"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="24" t="s">
+      <c r="C87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="29"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
     </row>
     <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="18" t="s">
@@ -3741,146 +3744,99 @@
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="38"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="26"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="36" t="s">
+      <c r="C94" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="38"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="26"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="39" t="s">
+      <c r="C95" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="41"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="29"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="26"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="29"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -3890,14 +3846,61 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3908,17 +3911,17 @@
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C34" sqref="C34:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
@@ -3977,11 +3980,11 @@
       <c r="J5" s="16">
         <v>4</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -4009,11 +4012,11 @@
         <v>44</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="O6" s="52" t="s">
+      <c r="O6" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
@@ -4026,11 +4029,11 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -4043,11 +4046,11 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -4061,11 +4064,11 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -4078,11 +4081,11 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
@@ -4133,9 +4136,9 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -4145,10 +4148,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>50</v>
@@ -4201,100 +4204,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -4325,100 +4328,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="57"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="61"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="60"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="57"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="60"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="57"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="64"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="60"/>
+      <c r="C33" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="60"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="57"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -4449,100 +4452,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -4573,100 +4576,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -4697,92 +4700,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="32"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="18" t="s">
@@ -4797,88 +4800,88 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="32"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="39" t="s">
+      <c r="C68" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="41"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
     </row>
     <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="18" t="s">
@@ -4893,88 +4896,88 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="30" t="s">
+      <c r="C74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="32"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="38"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="38"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="41"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="29"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
     </row>
     <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="18" t="s">
@@ -4989,88 +4992,88 @@
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="32"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="26"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="38"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="39" t="s">
+      <c r="C86" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="41"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="29"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="24" t="s">
+      <c r="C87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="29"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
     </row>
     <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="18" t="s">
@@ -5085,88 +5088,88 @@
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="38"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="26"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="36" t="s">
+      <c r="C94" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="38"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="26"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="39" t="s">
+      <c r="C95" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="41"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="29"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="26"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="29"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
     </row>
     <row r="100" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C100" s="9"/>
@@ -5250,6 +5253,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
     <mergeCell ref="O6:Q6"/>
     <mergeCell ref="C87:J87"/>
     <mergeCell ref="O10:Q10"/>
@@ -5266,62 +5325,6 @@
     <mergeCell ref="C77:J77"/>
     <mergeCell ref="C78:J78"/>
     <mergeCell ref="C79:J79"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentatie/urenlijst_met_logboek.xlsx
+++ b/documentatie/urenlijst_met_logboek.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="84">
   <si>
     <t>Dag:</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>Vrijdag: Oplevering van het project, Jean-Pierre helpen met zijn stuk van de PvA</t>
+  </si>
+  <si>
+    <t>Maandag: Hoofdstuk 2 van de PvA smart formulere, notule vergadering 2 en controleren of de PvA voldoet aan alle eisen(checklist PvA).</t>
   </si>
 </sst>
 </file>
@@ -772,24 +775,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -817,6 +802,33 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -838,12 +850,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -862,8 +868,14 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -874,18 +886,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -894,6 +894,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1182,18 +1185,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:J33"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
@@ -1252,11 +1255,11 @@
       <c r="J5" s="16">
         <v>2</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="41"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -1284,28 +1287,30 @@
         <v>2</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="16">
+        <v>4</v>
+      </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -1318,11 +1323,11 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -1336,11 +1341,11 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="44"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -1353,11 +1358,11 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="48" t="s">
+      <c r="O10" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
@@ -1408,9 +1413,9 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1420,13 +1425,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -1476,100 +1481,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -1600,100 +1605,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="41"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -1724,100 +1729,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -1848,100 +1853,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="26"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -1972,92 +1977,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="26"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="26"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="29"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="26"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="35"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C63" s="23"/>
@@ -2082,88 +2087,88 @@
       <c r="J64" s="21"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="36" t="s">
+      <c r="C65" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="26"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="26"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="29"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="41"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="30" t="s">
+      <c r="C69" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="26"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="30" t="s">
+      <c r="C70" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="32"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="26"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="35"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C72" s="23"/>
@@ -2188,88 +2193,88 @@
       <c r="J73" s="21"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="38"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="32"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="26"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="38"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="24" t="s">
+      <c r="C76" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="26"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="38"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="29"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="41"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="30" t="s">
+      <c r="C78" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="32"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="32"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="26"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="35"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C81" s="23"/>
@@ -2294,88 +2299,88 @@
       <c r="J82" s="21"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="38"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="32"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="24" t="s">
+      <c r="C84" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="26"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="38"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="38"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="27" t="s">
+      <c r="C86" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="29"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="41"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="30" t="s">
+      <c r="C87" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="32"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="26"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="30" t="s">
+      <c r="C88" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="32"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="26"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="33" t="s">
+      <c r="C89" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="35"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="29"/>
     </row>
     <row r="90" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C90" s="23"/>
@@ -2400,99 +2405,146 @@
       <c r="J91" s="21"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="38"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="24" t="s">
+      <c r="C93" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="26"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="38"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="24" t="s">
+      <c r="C94" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="26"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="38"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="27" t="s">
+      <c r="C95" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="29"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="41"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="32"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="26"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="30" t="s">
+      <c r="C97" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="32"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="26"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="33" t="s">
+      <c r="C98" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="35"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -2502,61 +2554,14 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2567,17 +2572,17 @@
   <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
@@ -2636,11 +2641,11 @@
       <c r="J5" s="16">
         <v>2</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="41"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -2668,28 +2673,30 @@
         <v>44</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="16">
+        <v>4</v>
+      </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -2702,11 +2709,11 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -2720,11 +2727,11 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="44"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -2737,11 +2744,11 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="48" t="s">
+      <c r="O10" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
@@ -2792,9 +2799,9 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2804,13 +2811,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -2860,100 +2867,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -2984,100 +2991,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="41"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -3108,100 +3115,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -3232,100 +3239,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="26"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -3356,92 +3363,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="26"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="26"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="29"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="26"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="35"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="18" t="s">
@@ -3456,88 +3463,88 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="36" t="s">
+      <c r="C65" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="26"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="26"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="29"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="41"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="30" t="s">
+      <c r="C69" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="26"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="30" t="s">
+      <c r="C70" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="32"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="26"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="35"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
     </row>
     <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="18" t="s">
@@ -3552,88 +3559,88 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="38"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="32"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="26"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="38"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="24" t="s">
+      <c r="C76" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="26"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="38"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="29"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="41"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="30" t="s">
+      <c r="C78" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="32"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="32"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="26"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="35"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
     </row>
     <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="18" t="s">
@@ -3648,88 +3655,88 @@
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="38"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="32"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="24" t="s">
+      <c r="C84" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="26"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="38"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="38"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="27" t="s">
+      <c r="C86" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="29"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="41"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="30" t="s">
+      <c r="C87" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="32"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="26"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="30" t="s">
+      <c r="C88" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="32"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="26"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="33" t="s">
+      <c r="C89" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="35"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="29"/>
     </row>
     <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="18" t="s">
@@ -3744,99 +3751,146 @@
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="38"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="24" t="s">
+      <c r="C93" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="26"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="38"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="24" t="s">
+      <c r="C94" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="26"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="38"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="27" t="s">
+      <c r="C95" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="29"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="41"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="32"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="26"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="30" t="s">
+      <c r="C97" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="32"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="26"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="33" t="s">
+      <c r="C98" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="35"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -3846,61 +3900,14 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3911,17 +3918,17 @@
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:J34"/>
+      <selection activeCell="C39" sqref="C39:J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
@@ -3980,11 +3987,11 @@
       <c r="J5" s="16">
         <v>4</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="41"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -4012,28 +4019,30 @@
         <v>44</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="16">
+        <v>4</v>
+      </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -4046,11 +4055,11 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -4064,11 +4073,11 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="44"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -4081,11 +4090,11 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="48" t="s">
+      <c r="O10" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
@@ -4136,9 +4145,9 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -4148,13 +4157,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -4204,100 +4213,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -4328,100 +4337,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="61"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="57"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="57"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="60"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="57"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="60"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="64"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="63"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="57"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="60"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -4452,100 +4461,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
+      <c r="C38" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -4576,100 +4585,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="26"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -4700,92 +4709,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="26"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="26"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="29"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="26"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="35"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="18" t="s">
@@ -4800,88 +4809,88 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="36" t="s">
+      <c r="C65" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="26"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="26"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="29"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="41"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="30" t="s">
+      <c r="C69" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="26"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="30" t="s">
+      <c r="C70" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="32"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="26"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="35"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
     </row>
     <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="18" t="s">
@@ -4896,88 +4905,88 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="38"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="32"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="26"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="38"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="24" t="s">
+      <c r="C76" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="26"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="38"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="29"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="41"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="30" t="s">
+      <c r="C78" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="32"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="32"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="26"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="35"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
     </row>
     <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="18" t="s">
@@ -4992,88 +5001,88 @@
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="38"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="32"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="24" t="s">
+      <c r="C84" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="26"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="38"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="38"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="27" t="s">
+      <c r="C86" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="29"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="41"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="30" t="s">
+      <c r="C87" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="32"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="26"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="30" t="s">
+      <c r="C88" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="32"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="26"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="33" t="s">
+      <c r="C89" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="35"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="29"/>
     </row>
     <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="18" t="s">
@@ -5088,88 +5097,88 @@
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="38"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="24" t="s">
+      <c r="C93" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="26"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="38"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="24" t="s">
+      <c r="C94" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="26"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="38"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="27" t="s">
+      <c r="C95" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="29"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="41"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="32"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="26"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="30" t="s">
+      <c r="C97" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="32"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="26"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="33" t="s">
+      <c r="C98" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="35"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="29"/>
     </row>
     <row r="100" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C100" s="9"/>
@@ -5253,46 +5262,22 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="C69:J69"/>
@@ -5309,22 +5294,46 @@
     <mergeCell ref="C59:J59"/>
     <mergeCell ref="C60:J60"/>
     <mergeCell ref="C49:J49"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentatie/urenlijst_met_logboek.xlsx
+++ b/documentatie/urenlijst_met_logboek.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JP" sheetId="4" r:id="rId1"/>
     <sheet name="Lukasz" sheetId="2" r:id="rId2"/>
     <sheet name="Youssef" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="85">
   <si>
     <t>Dag:</t>
   </si>
@@ -298,11 +298,14 @@
   <si>
     <t>Maandag: Hoofdstuk 2 van de PvA smart formulere, notule vergadering 2 en controleren of de PvA voldoet aan alle eisen(checklist PvA).</t>
   </si>
+  <si>
+    <t>Maandag: planning afgemaakt checklist pva door aan et werken</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -775,6 +778,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -802,33 +823,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -850,6 +844,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -868,6 +868,21 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -878,15 +893,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -894,9 +900,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1182,29 +1185,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="47"/>
+      <c r="C1" s="54"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1255,13 +1258,13 @@
       <c r="J5" s="16">
         <v>2</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1287,13 +1290,13 @@
         <v>2</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="O6" s="52" t="s">
+      <c r="O6" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1306,13 +1309,13 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1323,13 +1326,13 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1341,13 +1344,13 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1358,13 +1361,13 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1376,7 +1379,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1388,7 +1391,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1400,7 +1403,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1412,10 +1415,10 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1423,12 +1426,12 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>40</v>
@@ -1438,7 +1441,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -1450,7 +1453,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
       <c r="B18" s="17" t="s">
         <v>23</v>
@@ -1464,7 +1467,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="18" t="s">
@@ -1478,105 +1481,105 @@
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="20"/>
@@ -1588,7 +1591,7 @@
       <c r="I27" s="20"/>
       <c r="J27" s="21"/>
     </row>
-    <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="22" t="s">
@@ -1602,105 +1605,105 @@
       <c r="I28" s="20"/>
       <c r="J28" s="21"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="21"/>
@@ -1712,7 +1715,7 @@
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
     </row>
-    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="22" t="s">
@@ -1726,105 +1729,105 @@
       <c r="I37" s="20"/>
       <c r="J37" s="21"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C38" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="20"/>
@@ -1836,7 +1839,7 @@
       <c r="I45" s="20"/>
       <c r="J45" s="21"/>
     </row>
-    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="22" t="s">
@@ -1850,105 +1853,105 @@
       <c r="I46" s="20"/>
       <c r="J46" s="21"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="21"/>
@@ -1960,7 +1963,7 @@
       <c r="I54" s="21"/>
       <c r="J54" s="21"/>
     </row>
-    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="22" t="s">
@@ -1974,97 +1977,97 @@
       <c r="I55" s="20"/>
       <c r="J55" s="21"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="32"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="39" t="s">
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C59" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="24" t="s">
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C60" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="24" t="s">
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="27" t="s">
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C63" s="23"/>
       <c r="D63" s="23"/>
       <c r="E63" s="23"/>
@@ -2074,7 +2077,7 @@
       <c r="I63" s="23"/>
       <c r="J63" s="23"/>
     </row>
-    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C64" s="22" t="s">
         <v>36</v>
       </c>
@@ -2086,91 +2089,91 @@
       <c r="I64" s="20"/>
       <c r="J64" s="21"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="30" t="s">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C65" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="32"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="36" t="s">
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="36" t="s">
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C67" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="39" t="s">
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C68" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="41"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="24" t="s">
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="24" t="s">
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="27" t="s">
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
-    </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C72" s="23"/>
       <c r="D72" s="23"/>
       <c r="E72" s="23"/>
@@ -2180,7 +2183,7 @@
       <c r="I72" s="23"/>
       <c r="J72" s="23"/>
     </row>
-    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C73" s="22" t="s">
         <v>37</v>
       </c>
@@ -2192,91 +2195,91 @@
       <c r="I73" s="20"/>
       <c r="J73" s="21"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="30" t="s">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="32"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="36" t="s">
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C75" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="38"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="36" t="s">
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="38"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="39" t="s">
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C77" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="41"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="24" t="s">
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="29"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="24" t="s">
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="27" t="s">
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
-    </row>
-    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C81" s="23"/>
       <c r="D81" s="23"/>
       <c r="E81" s="23"/>
@@ -2286,7 +2289,7 @@
       <c r="I81" s="23"/>
       <c r="J81" s="23"/>
     </row>
-    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C82" s="22" t="s">
         <v>39</v>
       </c>
@@ -2298,91 +2301,91 @@
       <c r="I82" s="20"/>
       <c r="J82" s="21"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="30" t="s">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C83" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="32"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="36" t="s">
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C84" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="36" t="s">
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="26"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="38"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="39" t="s">
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C86" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="41"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="24" t="s">
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="29"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="24" t="s">
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C88" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="27" t="s">
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="29"/>
-    </row>
-    <row r="90" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
+    </row>
+    <row r="90" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C90" s="23"/>
       <c r="D90" s="23"/>
       <c r="E90" s="23"/>
@@ -2392,7 +2395,7 @@
       <c r="I90" s="23"/>
       <c r="J90" s="23"/>
     </row>
-    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C91" s="22" t="s">
         <v>38</v>
       </c>
@@ -2404,147 +2407,100 @@
       <c r="I91" s="20"/>
       <c r="J91" s="21"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="30" t="s">
+    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C92" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="36" t="s">
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C93" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="38"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="36" t="s">
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="26"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C94" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="38"/>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="39" t="s">
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="26"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C95" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="41"/>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="24" t="s">
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="29"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C96" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="26"/>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="24" t="s">
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="27" t="s">
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="29"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -2554,43 +2510,90 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="47"/>
+      <c r="C1" s="54"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2616,7 +2619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -2641,13 +2644,13 @@
       <c r="J5" s="16">
         <v>2</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2673,13 +2676,13 @@
         <v>44</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="O6" s="52" t="s">
+      <c r="O6" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
@@ -2692,13 +2695,13 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
@@ -2709,13 +2712,13 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -2727,13 +2730,13 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -2744,13 +2747,13 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -2762,7 +2765,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
@@ -2774,7 +2777,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -2786,7 +2789,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -2798,10 +2801,10 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2809,12 +2812,12 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>30</v>
@@ -2824,7 +2827,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -2836,7 +2839,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
       <c r="B18" s="17" t="s">
         <v>23</v>
@@ -2850,7 +2853,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="18" t="s">
@@ -2864,105 +2867,105 @@
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
@@ -2974,7 +2977,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="18" t="s">
@@ -2988,105 +2991,105 @@
       <c r="I28" s="9"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -3098,7 +3101,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="18" t="s">
@@ -3112,105 +3115,105 @@
       <c r="I37" s="9"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="9"/>
@@ -3222,7 +3225,7 @@
       <c r="I45" s="9"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="18" t="s">
@@ -3236,105 +3239,105 @@
       <c r="I46" s="9"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -3346,7 +3349,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="18" t="s">
@@ -3360,97 +3363,97 @@
       <c r="I55" s="9"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="32"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="39" t="s">
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C59" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="24" t="s">
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C60" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="24" t="s">
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="27" t="s">
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
-    </row>
-    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
+    </row>
+    <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C64" s="18" t="s">
         <v>36</v>
       </c>
@@ -3462,91 +3465,91 @@
       <c r="I64" s="9"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="30" t="s">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C65" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="32"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="36" t="s">
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="36" t="s">
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C67" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="39" t="s">
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C68" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="41"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="24" t="s">
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="24" t="s">
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="27" t="s">
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
-    </row>
-    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
+    </row>
+    <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C73" s="18" t="s">
         <v>37</v>
       </c>
@@ -3558,91 +3561,91 @@
       <c r="I73" s="9"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="30" t="s">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="32"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="36" t="s">
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C75" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="38"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="36" t="s">
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="38"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="39" t="s">
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C77" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="41"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="24" t="s">
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="29"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="24" t="s">
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="27" t="s">
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
-    </row>
-    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
+    </row>
+    <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C82" s="18" t="s">
         <v>39</v>
       </c>
@@ -3654,91 +3657,91 @@
       <c r="I82" s="9"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="30" t="s">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C83" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="32"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="36" t="s">
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C84" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="36" t="s">
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="26"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="38"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="39" t="s">
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C86" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="41"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="24" t="s">
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="29"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="24" t="s">
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C88" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="27" t="s">
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="29"/>
-    </row>
-    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
+    </row>
+    <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C91" s="18" t="s">
         <v>38</v>
       </c>
@@ -3750,147 +3753,100 @@
       <c r="I91" s="9"/>
       <c r="J91" s="6"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="30" t="s">
+    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C92" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="36" t="s">
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C93" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="38"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="36" t="s">
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="26"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C94" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="38"/>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="39" t="s">
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="26"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C95" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="41"/>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="24" t="s">
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="29"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C96" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="26"/>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="24" t="s">
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="27" t="s">
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="29"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -3900,43 +3856,90 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C39" sqref="C39:J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="47"/>
+      <c r="C1" s="54"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3962,7 +3965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -3987,13 +3990,13 @@
       <c r="J5" s="16">
         <v>4</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -4019,13 +4022,13 @@
         <v>44</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="O6" s="52" t="s">
+      <c r="O6" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
@@ -4038,13 +4041,13 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
@@ -4055,13 +4058,13 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -4073,13 +4076,13 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -4090,13 +4093,13 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -4108,7 +4111,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
@@ -4120,7 +4123,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -4132,7 +4135,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -4144,10 +4147,10 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -4155,12 +4158,12 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>54</v>
@@ -4170,7 +4173,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -4182,7 +4185,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
       <c r="B18" s="17" t="s">
         <v>23</v>
@@ -4196,7 +4199,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="18" t="s">
@@ -4210,105 +4213,105 @@
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
@@ -4320,7 +4323,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="18" t="s">
@@ -4334,105 +4337,105 @@
       <c r="I28" s="9"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="57"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="61"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="60"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="57"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="60"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="57"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="63"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="64"/>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="60"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="57"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -4444,7 +4447,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="18" t="s">
@@ -4458,105 +4461,105 @@
       <c r="I37" s="9"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="9"/>
@@ -4568,7 +4571,7 @@
       <c r="I45" s="9"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="18" t="s">
@@ -4582,105 +4585,105 @@
       <c r="I46" s="9"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -4692,7 +4695,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="18" t="s">
@@ -4706,97 +4709,97 @@
       <c r="I55" s="9"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="32"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="39" t="s">
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C59" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="24" t="s">
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C60" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="24" t="s">
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="27" t="s">
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
-    </row>
-    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
+    </row>
+    <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C64" s="18" t="s">
         <v>36</v>
       </c>
@@ -4808,91 +4811,91 @@
       <c r="I64" s="9"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="30" t="s">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C65" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="32"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="36" t="s">
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="36" t="s">
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C67" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="39" t="s">
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C68" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="41"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="24" t="s">
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="24" t="s">
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="27" t="s">
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
-    </row>
-    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
+    </row>
+    <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C73" s="18" t="s">
         <v>37</v>
       </c>
@@ -4904,91 +4907,91 @@
       <c r="I73" s="9"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="30" t="s">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="32"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="36" t="s">
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C75" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="38"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="36" t="s">
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="38"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="39" t="s">
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C77" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="41"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="24" t="s">
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="29"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="24" t="s">
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="27" t="s">
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
-    </row>
-    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
+    </row>
+    <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C82" s="18" t="s">
         <v>39</v>
       </c>
@@ -5000,91 +5003,91 @@
       <c r="I82" s="9"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="30" t="s">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C83" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="32"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="36" t="s">
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C84" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="36" t="s">
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="26"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="38"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="39" t="s">
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C86" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="41"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="24" t="s">
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="29"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="24" t="s">
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C88" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="27" t="s">
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="29"/>
-    </row>
-    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
+    </row>
+    <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C91" s="18" t="s">
         <v>38</v>
       </c>
@@ -5096,91 +5099,91 @@
       <c r="I91" s="9"/>
       <c r="J91" s="6"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="30" t="s">
+    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C92" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="36" t="s">
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C93" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="38"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="36" t="s">
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="26"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C94" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="38"/>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="39" t="s">
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="26"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C95" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="41"/>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="24" t="s">
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="29"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C96" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="26"/>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="24" t="s">
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="27" t="s">
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="29"/>
-    </row>
-    <row r="100" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
+    </row>
+    <row r="100" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
@@ -5190,7 +5193,7 @@
       <c r="I100" s="9"/>
       <c r="J100" s="6"/>
     </row>
-    <row r="101" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
@@ -5200,7 +5203,7 @@
       <c r="I101" s="13"/>
       <c r="J101" s="13"/>
     </row>
-    <row r="102" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
@@ -5210,7 +5213,7 @@
       <c r="I102" s="13"/>
       <c r="J102" s="13"/>
     </row>
-    <row r="103" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
@@ -5220,7 +5223,7 @@
       <c r="I103" s="13"/>
       <c r="J103" s="13"/>
     </row>
-    <row r="104" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
@@ -5230,7 +5233,7 @@
       <c r="I104" s="11"/>
       <c r="J104" s="11"/>
     </row>
-    <row r="105" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
@@ -5240,7 +5243,7 @@
       <c r="I105" s="12"/>
       <c r="J105" s="12"/>
     </row>
-    <row r="106" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
@@ -5250,7 +5253,7 @@
       <c r="I106" s="12"/>
       <c r="J106" s="12"/>
     </row>
-    <row r="107" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C107" s="14"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
@@ -5262,6 +5265,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
     <mergeCell ref="O6:Q6"/>
     <mergeCell ref="C87:J87"/>
     <mergeCell ref="O10:Q10"/>
@@ -5278,62 +5337,6 @@
     <mergeCell ref="C77:J77"/>
     <mergeCell ref="C78:J78"/>
     <mergeCell ref="C79:J79"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentatie/urenlijst_met_logboek.xlsx
+++ b/documentatie/urenlijst_met_logboek.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="JP" sheetId="4" r:id="rId1"/>
     <sheet name="Lukasz" sheetId="2" r:id="rId2"/>
     <sheet name="Youssef" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="86">
   <si>
     <t>Dag:</t>
   </si>
@@ -296,16 +296,19 @@
     <t>Vrijdag: Oplevering van het project, Jean-Pierre helpen met zijn stuk van de PvA</t>
   </si>
   <si>
-    <t>Maandag: Hoofdstuk 2 van de PvA smart formulere, notule vergadering 2 en controleren of de PvA voldoet aan alle eisen(checklist PvA).</t>
-  </si>
-  <si>
     <t>Maandag: planning afgemaakt checklist pva door aan et werken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinsdag: Notule vergadering 2 </t>
+  </si>
+  <si>
+    <t>Maandag: Hoofdstuk 2 van de PvA smart formuleren, PvA verbetern en controleren of de PvA voldoet aan alle eisen(checklist PvA).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -778,24 +781,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -823,6 +808,33 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -844,12 +856,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -868,8 +874,14 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -880,18 +892,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -900,6 +900,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1185,29 +1188,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C38" sqref="C38:J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="54"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1233,7 +1236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1258,13 +1261,13 @@
       <c r="J5" s="16">
         <v>2</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="41"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1290,13 +1293,13 @@
         <v>2</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="53"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1309,13 +1312,13 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1326,13 +1329,13 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1344,13 +1347,13 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="44"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1361,13 +1364,13 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="48" t="s">
+      <c r="O10" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1379,7 +1382,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1391,7 +1394,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1403,7 +1406,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1415,10 +1418,10 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1426,12 +1429,12 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>40</v>
@@ -1441,7 +1444,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -1453,7 +1456,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="17" t="s">
         <v>23</v>
@@ -1467,7 +1470,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="18" t="s">
@@ -1481,105 +1484,105 @@
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="20"/>
@@ -1591,7 +1594,7 @@
       <c r="I27" s="20"/>
       <c r="J27" s="21"/>
     </row>
-    <row r="28" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="22" t="s">
@@ -1605,105 +1608,105 @@
       <c r="I28" s="20"/>
       <c r="J28" s="21"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="41"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="21"/>
@@ -1715,7 +1718,7 @@
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
     </row>
-    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="22" t="s">
@@ -1729,105 +1732,105 @@
       <c r="I37" s="20"/>
       <c r="J37" s="21"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C38" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="20"/>
@@ -1839,7 +1842,7 @@
       <c r="I45" s="20"/>
       <c r="J45" s="21"/>
     </row>
-    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="22" t="s">
@@ -1853,105 +1856,105 @@
       <c r="I46" s="20"/>
       <c r="J46" s="21"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="26"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="21"/>
@@ -1963,7 +1966,7 @@
       <c r="I54" s="21"/>
       <c r="J54" s="21"/>
     </row>
-    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="22" t="s">
@@ -1977,97 +1980,97 @@
       <c r="I55" s="20"/>
       <c r="J55" s="21"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="26"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="26"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C59" s="27" t="s">
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C59" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="29"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C60" s="30" t="s">
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C60" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C61" s="30" t="s">
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C61" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C62" s="33" t="s">
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="26"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C62" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="35"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C63" s="23"/>
       <c r="D63" s="23"/>
       <c r="E63" s="23"/>
@@ -2077,7 +2080,7 @@
       <c r="I63" s="23"/>
       <c r="J63" s="23"/>
     </row>
-    <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="22" t="s">
         <v>36</v>
       </c>
@@ -2089,91 +2092,91 @@
       <c r="I64" s="20"/>
       <c r="J64" s="21"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="36" t="s">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C65" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="24" t="s">
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C66" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="26"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="24" t="s">
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C67" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="26"/>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="27" t="s">
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C68" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="29"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="30" t="s">
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="41"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C69" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="30" t="s">
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="26"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C70" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="32"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="33" t="s">
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="26"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C71" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="35"/>
-    </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C72" s="23"/>
       <c r="D72" s="23"/>
       <c r="E72" s="23"/>
@@ -2183,7 +2186,7 @@
       <c r="I72" s="23"/>
       <c r="J72" s="23"/>
     </row>
-    <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="22" t="s">
         <v>37</v>
       </c>
@@ -2195,91 +2198,91 @@
       <c r="I73" s="20"/>
       <c r="J73" s="21"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C74" s="36" t="s">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C74" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="38"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C75" s="24" t="s">
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="32"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C75" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="26"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C76" s="24" t="s">
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="38"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C76" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="26"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C77" s="27" t="s">
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="38"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C77" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="29"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C78" s="30" t="s">
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="41"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C78" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="32"/>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C79" s="30" t="s">
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C79" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="32"/>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C80" s="33" t="s">
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="26"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C80" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="35"/>
-    </row>
-    <row r="81" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C81" s="23"/>
       <c r="D81" s="23"/>
       <c r="E81" s="23"/>
@@ -2289,7 +2292,7 @@
       <c r="I81" s="23"/>
       <c r="J81" s="23"/>
     </row>
-    <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="22" t="s">
         <v>39</v>
       </c>
@@ -2301,91 +2304,91 @@
       <c r="I82" s="20"/>
       <c r="J82" s="21"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C83" s="36" t="s">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C83" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="38"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C84" s="24" t="s">
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="32"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C84" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="26"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C85" s="24" t="s">
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="38"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C85" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C86" s="27" t="s">
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="38"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C86" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="29"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C87" s="30" t="s">
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="41"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C87" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="32"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C88" s="30" t="s">
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="26"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C88" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="32"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C89" s="33" t="s">
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="26"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C89" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="35"/>
-    </row>
-    <row r="90" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="29"/>
+    </row>
+    <row r="90" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C90" s="23"/>
       <c r="D90" s="23"/>
       <c r="E90" s="23"/>
@@ -2395,7 +2398,7 @@
       <c r="I90" s="23"/>
       <c r="J90" s="23"/>
     </row>
-    <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="22" t="s">
         <v>38</v>
       </c>
@@ -2407,100 +2410,147 @@
       <c r="I91" s="20"/>
       <c r="J91" s="21"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C92" s="36" t="s">
+    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C92" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="38"/>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C93" s="24" t="s">
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C93" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="26"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C94" s="24" t="s">
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="38"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C94" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="26"/>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C95" s="27" t="s">
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="38"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C95" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="29"/>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C96" s="30" t="s">
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="41"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C96" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="32"/>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C97" s="30" t="s">
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="26"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C97" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="32"/>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C98" s="33" t="s">
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="26"/>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C98" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="35"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -2510,90 +2560,43 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="54"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2619,7 +2622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -2644,13 +2647,13 @@
       <c r="J5" s="16">
         <v>2</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="41"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2676,13 +2679,13 @@
         <v>44</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="53"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
@@ -2695,13 +2698,13 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
@@ -2712,13 +2715,13 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -2730,13 +2733,13 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="44"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -2747,13 +2750,13 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="48" t="s">
+      <c r="O10" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -2765,7 +2768,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
@@ -2777,7 +2780,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -2789,7 +2792,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -2801,10 +2804,10 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2812,12 +2815,12 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>30</v>
@@ -2827,7 +2830,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -2839,7 +2842,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="17" t="s">
         <v>23</v>
@@ -2853,7 +2856,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="18" t="s">
@@ -2867,105 +2870,105 @@
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
@@ -2977,7 +2980,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="18" t="s">
@@ -2991,105 +2994,105 @@
       <c r="I28" s="9"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="41"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -3101,7 +3104,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="18" t="s">
@@ -3115,105 +3118,105 @@
       <c r="I37" s="9"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="9"/>
@@ -3225,7 +3228,7 @@
       <c r="I45" s="9"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="18" t="s">
@@ -3239,105 +3242,105 @@
       <c r="I46" s="9"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="26"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -3349,7 +3352,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="18" t="s">
@@ -3363,97 +3366,97 @@
       <c r="I55" s="9"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="26"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="26"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C59" s="27" t="s">
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C59" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="29"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C60" s="30" t="s">
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C60" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C61" s="30" t="s">
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C61" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C62" s="33" t="s">
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="26"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C62" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="35"/>
-    </row>
-    <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
+    </row>
+    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="18" t="s">
         <v>36</v>
       </c>
@@ -3465,91 +3468,91 @@
       <c r="I64" s="9"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="36" t="s">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C65" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="24" t="s">
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C66" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="26"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="24" t="s">
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C67" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="26"/>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="27" t="s">
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C68" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="29"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="30" t="s">
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="41"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C69" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="30" t="s">
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="26"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C70" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="32"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="33" t="s">
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="26"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C71" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="35"/>
-    </row>
-    <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
+    </row>
+    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="18" t="s">
         <v>37</v>
       </c>
@@ -3561,91 +3564,91 @@
       <c r="I73" s="9"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C74" s="36" t="s">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C74" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="38"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C75" s="24" t="s">
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="32"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C75" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="26"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C76" s="24" t="s">
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="38"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C76" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="26"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C77" s="27" t="s">
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="38"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C77" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="29"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C78" s="30" t="s">
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="41"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C78" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="32"/>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C79" s="30" t="s">
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C79" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="32"/>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C80" s="33" t="s">
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="26"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C80" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="35"/>
-    </row>
-    <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
+    </row>
+    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="18" t="s">
         <v>39</v>
       </c>
@@ -3657,91 +3660,91 @@
       <c r="I82" s="9"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C83" s="36" t="s">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C83" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="38"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C84" s="24" t="s">
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="32"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C84" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="26"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C85" s="24" t="s">
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="38"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C85" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C86" s="27" t="s">
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="38"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C86" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="29"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C87" s="30" t="s">
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="41"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C87" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="32"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C88" s="30" t="s">
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="26"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C88" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="32"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C89" s="33" t="s">
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="26"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C89" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="35"/>
-    </row>
-    <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="29"/>
+    </row>
+    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="18" t="s">
         <v>38</v>
       </c>
@@ -3753,100 +3756,147 @@
       <c r="I91" s="9"/>
       <c r="J91" s="6"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C92" s="36" t="s">
+    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C92" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="38"/>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C93" s="24" t="s">
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C93" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="26"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C94" s="24" t="s">
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="38"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C94" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="26"/>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C95" s="27" t="s">
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="38"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C95" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="29"/>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C96" s="30" t="s">
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="41"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C96" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="32"/>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C97" s="30" t="s">
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="26"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C97" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="32"/>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C98" s="33" t="s">
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="26"/>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C98" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="35"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -3856,90 +3906,43 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:J39"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="54"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3965,7 +3968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -3990,13 +3993,13 @@
       <c r="J5" s="16">
         <v>4</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="41"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -4022,18 +4025,18 @@
         <v>44</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="53"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
@@ -4041,13 +4044,13 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
@@ -4058,13 +4061,13 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -4076,13 +4079,13 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="44"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -4093,13 +4096,13 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="48" t="s">
+      <c r="O10" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -4111,7 +4114,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
@@ -4123,7 +4126,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -4135,7 +4138,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -4147,10 +4150,10 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -4158,22 +4161,22 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -4185,7 +4188,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="17" t="s">
         <v>23</v>
@@ -4199,7 +4202,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="18" t="s">
@@ -4213,105 +4216,105 @@
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
@@ -4323,7 +4326,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="18" t="s">
@@ -4337,105 +4340,105 @@
       <c r="I28" s="9"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="61"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="57"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="57"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="60"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="57"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="60"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="64"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="63"/>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="57"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="60"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -4447,7 +4450,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="18" t="s">
@@ -4461,105 +4464,105 @@
       <c r="I37" s="9"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C38" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C39" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="9"/>
@@ -4571,7 +4574,7 @@
       <c r="I45" s="9"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="18" t="s">
@@ -4585,105 +4588,105 @@
       <c r="I46" s="9"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="26"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -4695,7 +4698,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="18" t="s">
@@ -4709,97 +4712,97 @@
       <c r="I55" s="9"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="26"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="26"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C59" s="27" t="s">
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C59" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="29"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C60" s="30" t="s">
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C60" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C61" s="30" t="s">
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C61" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C62" s="33" t="s">
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="26"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C62" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="35"/>
-    </row>
-    <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
+    </row>
+    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="18" t="s">
         <v>36</v>
       </c>
@@ -4811,91 +4814,91 @@
       <c r="I64" s="9"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="36" t="s">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C65" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="24" t="s">
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C66" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="26"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="24" t="s">
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C67" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="26"/>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="27" t="s">
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C68" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="29"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="30" t="s">
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="41"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C69" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="30" t="s">
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="26"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C70" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="32"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="33" t="s">
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="26"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C71" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="35"/>
-    </row>
-    <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
+    </row>
+    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="18" t="s">
         <v>37</v>
       </c>
@@ -4907,91 +4910,91 @@
       <c r="I73" s="9"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C74" s="36" t="s">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C74" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="38"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C75" s="24" t="s">
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="32"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C75" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="26"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C76" s="24" t="s">
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="38"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C76" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="26"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C77" s="27" t="s">
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="38"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C77" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="29"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C78" s="30" t="s">
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="41"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C78" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="32"/>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C79" s="30" t="s">
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C79" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="32"/>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C80" s="33" t="s">
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="26"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C80" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="35"/>
-    </row>
-    <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
+    </row>
+    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="18" t="s">
         <v>39</v>
       </c>
@@ -5003,91 +5006,91 @@
       <c r="I82" s="9"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C83" s="36" t="s">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C83" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="38"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C84" s="24" t="s">
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="32"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C84" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="26"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C85" s="24" t="s">
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="38"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C85" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C86" s="27" t="s">
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="38"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C86" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="29"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C87" s="30" t="s">
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="41"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C87" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="32"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C88" s="30" t="s">
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="26"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C88" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="32"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C89" s="33" t="s">
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="26"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C89" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="35"/>
-    </row>
-    <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="29"/>
+    </row>
+    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="18" t="s">
         <v>38</v>
       </c>
@@ -5099,91 +5102,91 @@
       <c r="I91" s="9"/>
       <c r="J91" s="6"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C92" s="36" t="s">
+    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C92" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="38"/>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C93" s="24" t="s">
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C93" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="26"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C94" s="24" t="s">
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="38"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C94" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="26"/>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C95" s="27" t="s">
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="38"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C95" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="29"/>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C96" s="30" t="s">
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="41"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C96" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="32"/>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C97" s="30" t="s">
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="26"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C97" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="32"/>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C98" s="33" t="s">
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="26"/>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C98" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="35"/>
-    </row>
-    <row r="100" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="29"/>
+    </row>
+    <row r="100" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
@@ -5193,7 +5196,7 @@
       <c r="I100" s="9"/>
       <c r="J100" s="6"/>
     </row>
-    <row r="101" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
@@ -5203,7 +5206,7 @@
       <c r="I101" s="13"/>
       <c r="J101" s="13"/>
     </row>
-    <row r="102" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
@@ -5213,7 +5216,7 @@
       <c r="I102" s="13"/>
       <c r="J102" s="13"/>
     </row>
-    <row r="103" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
@@ -5223,7 +5226,7 @@
       <c r="I103" s="13"/>
       <c r="J103" s="13"/>
     </row>
-    <row r="104" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
@@ -5233,7 +5236,7 @@
       <c r="I104" s="11"/>
       <c r="J104" s="11"/>
     </row>
-    <row r="105" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
@@ -5243,7 +5246,7 @@
       <c r="I105" s="12"/>
       <c r="J105" s="12"/>
     </row>
-    <row r="106" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
@@ -5253,7 +5256,7 @@
       <c r="I106" s="12"/>
       <c r="J106" s="12"/>
     </row>
-    <row r="107" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C107" s="14"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
@@ -5265,46 +5268,22 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="C69:J69"/>
@@ -5321,22 +5300,46 @@
     <mergeCell ref="C59:J59"/>
     <mergeCell ref="C60:J60"/>
     <mergeCell ref="C49:J49"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentatie/urenlijst_met_logboek.xlsx
+++ b/documentatie/urenlijst_met_logboek.xlsx
@@ -299,10 +299,10 @@
     <t>Maandag: planning afgemaakt checklist pva door aan et werken</t>
   </si>
   <si>
-    <t xml:space="preserve">Dinsdag: Notule vergadering 2 </t>
-  </si>
-  <si>
     <t>Maandag: Hoofdstuk 2 van de PvA smart formuleren, PvA verbetern en controleren of de PvA voldoet aan alle eisen(checklist PvA).</t>
+  </si>
+  <si>
+    <t>Dinsdag: Notule vergadering 2, PvA gecontroleerd, PvA aangepast en de PvA checklist geupdatet.</t>
   </si>
 </sst>
 </file>
@@ -781,6 +781,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -808,33 +826,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -856,6 +847,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -874,6 +871,21 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -884,15 +896,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -900,9 +903,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1198,11 +1198,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
@@ -1261,11 +1261,11 @@
       <c r="J5" s="16">
         <v>2</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -1293,11 +1293,11 @@
         <v>2</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="O6" s="52" t="s">
+      <c r="O6" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
@@ -1312,11 +1312,11 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -1329,11 +1329,11 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -1347,11 +1347,11 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -1364,11 +1364,11 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
@@ -1419,9 +1419,9 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1431,10 +1431,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>40</v>
@@ -1487,100 +1487,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -1611,100 +1611,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -1735,100 +1735,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -1859,100 +1859,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -1983,92 +1983,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="32"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C63" s="23"/>
@@ -2093,88 +2093,88 @@
       <c r="J64" s="21"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="32"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="39" t="s">
+      <c r="C68" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="41"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C72" s="23"/>
@@ -2199,88 +2199,88 @@
       <c r="J73" s="21"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="30" t="s">
+      <c r="C74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="32"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="38"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="38"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="41"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="29"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C81" s="23"/>
@@ -2305,88 +2305,88 @@
       <c r="J82" s="21"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="32"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="26"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="38"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="39" t="s">
+      <c r="C86" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="41"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="29"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="24" t="s">
+      <c r="C87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="29"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
     </row>
     <row r="90" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C90" s="23"/>
@@ -2411,146 +2411,99 @@
       <c r="J91" s="21"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="38"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="26"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="36" t="s">
+      <c r="C94" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="38"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="26"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="39" t="s">
+      <c r="C95" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="41"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="29"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="26"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="29"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -2560,14 +2513,61 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2584,11 +2584,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
@@ -2647,11 +2647,11 @@
       <c r="J5" s="16">
         <v>2</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -2679,11 +2679,11 @@
         <v>44</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="O6" s="52" t="s">
+      <c r="O6" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
@@ -2698,11 +2698,11 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -2715,11 +2715,11 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -2733,11 +2733,11 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -2750,11 +2750,11 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
@@ -2805,9 +2805,9 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2817,10 +2817,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>30</v>
@@ -2873,100 +2873,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -2997,100 +2997,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -3121,100 +3121,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -3245,100 +3245,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -3369,92 +3369,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="32"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="18" t="s">
@@ -3469,88 +3469,88 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="32"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="39" t="s">
+      <c r="C68" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="41"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
     </row>
     <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="18" t="s">
@@ -3565,88 +3565,88 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="30" t="s">
+      <c r="C74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="32"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="38"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="38"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="41"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="29"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
     </row>
     <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="18" t="s">
@@ -3661,88 +3661,88 @@
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="32"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="26"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="38"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="39" t="s">
+      <c r="C86" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="41"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="29"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="24" t="s">
+      <c r="C87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="29"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
     </row>
     <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="18" t="s">
@@ -3757,146 +3757,99 @@
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="38"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="26"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="36" t="s">
+      <c r="C94" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="38"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="26"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="39" t="s">
+      <c r="C95" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="41"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="29"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="26"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="29"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -3906,14 +3859,61 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3923,18 +3923,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
@@ -3993,11 +3993,11 @@
       <c r="J5" s="16">
         <v>4</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -4025,11 +4025,11 @@
         <v>44</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="O6" s="52" t="s">
+      <c r="O6" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
@@ -4038,17 +4038,19 @@
       <c r="D7" s="16">
         <v>5</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="16">
+        <v>5</v>
+      </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -4061,11 +4063,11 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -4079,11 +4081,11 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -4096,11 +4098,11 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
@@ -4151,9 +4153,9 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -4163,13 +4165,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -4219,100 +4221,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -4343,100 +4345,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="57"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="61"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="60"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="57"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="60"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="57"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="64"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="60"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="57"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -4467,100 +4469,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
+      <c r="C38" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
+      <c r="C39" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -4591,100 +4593,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -4715,92 +4717,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="32"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="18" t="s">
@@ -4815,88 +4817,88 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="32"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="39" t="s">
+      <c r="C68" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="41"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
     </row>
     <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="18" t="s">
@@ -4911,88 +4913,88 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="30" t="s">
+      <c r="C74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="32"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="38"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="38"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="41"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="29"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
     </row>
     <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="18" t="s">
@@ -5007,88 +5009,88 @@
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="32"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="26"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="38"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="39" t="s">
+      <c r="C86" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="41"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="29"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="24" t="s">
+      <c r="C87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="29"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
     </row>
     <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="18" t="s">
@@ -5103,88 +5105,88 @@
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="38"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="26"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="36" t="s">
+      <c r="C94" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="38"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="26"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="39" t="s">
+      <c r="C95" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="41"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="29"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="26"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="29"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
     </row>
     <row r="100" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C100" s="9"/>
@@ -5268,6 +5270,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
     <mergeCell ref="O6:Q6"/>
     <mergeCell ref="C87:J87"/>
     <mergeCell ref="O10:Q10"/>
@@ -5284,62 +5342,6 @@
     <mergeCell ref="C77:J77"/>
     <mergeCell ref="C78:J78"/>
     <mergeCell ref="C79:J79"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentatie/urenlijst_met_logboek.xlsx
+++ b/documentatie/urenlijst_met_logboek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JP" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="87">
   <si>
     <t>Dag:</t>
   </si>
@@ -296,13 +296,16 @@
     <t>Vrijdag: Oplevering van het project, Jean-Pierre helpen met zijn stuk van de PvA</t>
   </si>
   <si>
-    <t>Maandag: planning afgemaakt checklist pva door aan et werken</t>
-  </si>
-  <si>
     <t>Maandag: Hoofdstuk 2 van de PvA smart formuleren, PvA verbetern en controleren of de PvA voldoet aan alle eisen(checklist PvA).</t>
   </si>
   <si>
     <t>Dinsdag: Notule vergadering 2, PvA gecontroleerd, PvA aangepast en de PvA checklist geupdatet.</t>
+  </si>
+  <si>
+    <t>Dinsdag: verder afgemaakt en planning bij gewerkt en begonnen prototype appliactie</t>
+  </si>
+  <si>
+    <t>Maandag: planning afgemaakt checklist pva door aan het werken</t>
   </si>
 </sst>
 </file>
@@ -781,24 +784,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -826,6 +811,33 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -847,12 +859,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -871,8 +877,14 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -883,18 +895,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -903,6 +903,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1191,18 +1194,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:J38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
@@ -1261,11 +1264,11 @@
       <c r="J5" s="16">
         <v>2</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="41"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -1293,11 +1296,11 @@
         <v>2</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
@@ -1306,17 +1309,19 @@
       <c r="D7" s="16">
         <v>4</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="16">
+        <v>4</v>
+      </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -1329,11 +1334,11 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -1347,11 +1352,11 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="44"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -1364,11 +1369,11 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="48" t="s">
+      <c r="O10" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
@@ -1419,9 +1424,9 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1431,13 +1436,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -1487,100 +1492,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -1611,100 +1616,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="41"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -1735,100 +1740,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
+      <c r="C38" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
+      <c r="C39" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -1859,100 +1864,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="26"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -1983,92 +1988,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="26"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="26"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="29"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="26"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="35"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C63" s="23"/>
@@ -2093,88 +2098,88 @@
       <c r="J64" s="21"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="36" t="s">
+      <c r="C65" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="26"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="26"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="29"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="41"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="30" t="s">
+      <c r="C69" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="26"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="30" t="s">
+      <c r="C70" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="32"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="26"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="35"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C72" s="23"/>
@@ -2199,88 +2204,88 @@
       <c r="J73" s="21"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="38"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="32"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="26"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="38"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="24" t="s">
+      <c r="C76" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="26"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="38"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="29"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="41"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="30" t="s">
+      <c r="C78" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="32"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="32"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="26"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="35"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C81" s="23"/>
@@ -2305,88 +2310,88 @@
       <c r="J82" s="21"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="38"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="32"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="24" t="s">
+      <c r="C84" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="26"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="38"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="38"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="27" t="s">
+      <c r="C86" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="29"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="41"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="30" t="s">
+      <c r="C87" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="32"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="26"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="30" t="s">
+      <c r="C88" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="32"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="26"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="33" t="s">
+      <c r="C89" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="35"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="29"/>
     </row>
     <row r="90" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C90" s="23"/>
@@ -2411,99 +2416,146 @@
       <c r="J91" s="21"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="38"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="24" t="s">
+      <c r="C93" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="26"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="38"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="24" t="s">
+      <c r="C94" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="26"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="38"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="27" t="s">
+      <c r="C95" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="29"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="41"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="32"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="26"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="30" t="s">
+      <c r="C97" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="32"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="26"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="33" t="s">
+      <c r="C98" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="35"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -2513,61 +2565,14 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2577,18 +2582,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
@@ -2647,11 +2652,11 @@
       <c r="J5" s="16">
         <v>2</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="41"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -2679,11 +2684,11 @@
         <v>44</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
@@ -2692,17 +2697,19 @@
       <c r="D7" s="16">
         <v>4</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="16">
+        <v>4</v>
+      </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -2715,11 +2722,11 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -2733,11 +2740,11 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="44"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -2750,11 +2757,11 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="48" t="s">
+      <c r="O10" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
@@ -2805,9 +2812,9 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2817,13 +2824,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -2873,100 +2880,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -2997,100 +3004,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="41"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -3121,100 +3128,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -3245,100 +3252,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="26"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -3369,92 +3376,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="26"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="26"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="29"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="26"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="35"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="18" t="s">
@@ -3469,88 +3476,88 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="36" t="s">
+      <c r="C65" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="26"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="26"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="29"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="41"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="30" t="s">
+      <c r="C69" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="26"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="30" t="s">
+      <c r="C70" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="32"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="26"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="35"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
     </row>
     <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="18" t="s">
@@ -3565,88 +3572,88 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="38"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="32"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="26"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="38"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="24" t="s">
+      <c r="C76" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="26"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="38"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="29"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="41"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="30" t="s">
+      <c r="C78" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="32"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="32"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="26"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="35"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
     </row>
     <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="18" t="s">
@@ -3661,88 +3668,88 @@
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="38"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="32"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="24" t="s">
+      <c r="C84" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="26"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="38"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="38"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="27" t="s">
+      <c r="C86" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="29"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="41"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="30" t="s">
+      <c r="C87" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="32"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="26"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="30" t="s">
+      <c r="C88" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="32"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="26"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="33" t="s">
+      <c r="C89" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="35"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="29"/>
     </row>
     <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="18" t="s">
@@ -3757,99 +3764,146 @@
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="38"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="24" t="s">
+      <c r="C93" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="26"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="38"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="24" t="s">
+      <c r="C94" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="26"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="38"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="27" t="s">
+      <c r="C95" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="29"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="41"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="32"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="26"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="30" t="s">
+      <c r="C97" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="32"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="26"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="33" t="s">
+      <c r="C98" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="35"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -3859,61 +3913,14 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3923,18 +3930,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
@@ -3993,11 +4000,11 @@
       <c r="J5" s="16">
         <v>4</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="41"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -4025,11 +4032,11 @@
         <v>44</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
@@ -4046,11 +4053,11 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -4063,11 +4070,11 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -4081,11 +4088,11 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="44"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -4098,11 +4105,11 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="48" t="s">
+      <c r="O10" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
@@ -4153,9 +4160,9 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -4165,10 +4172,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>60</v>
@@ -4221,100 +4228,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -4345,100 +4352,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="61"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="57"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="57"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="60"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="57"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="60"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="64"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="63"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="57"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="60"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -4469,100 +4476,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
+      <c r="C38" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
+      <c r="C39" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="38"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -4593,100 +4600,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="26"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="41"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -4717,92 +4724,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="26"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="26"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="38"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="29"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="26"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="35"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
     </row>
     <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C64" s="18" t="s">
@@ -4817,88 +4824,88 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="36" t="s">
+      <c r="C65" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="26"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="26"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="29"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="41"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="30" t="s">
+      <c r="C69" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="26"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="30" t="s">
+      <c r="C70" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="32"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="26"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="35"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
     </row>
     <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C73" s="18" t="s">
@@ -4913,88 +4920,88 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="38"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="32"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="26"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="38"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="24" t="s">
+      <c r="C76" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="26"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="38"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="29"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="41"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="30" t="s">
+      <c r="C78" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="32"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="32"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="26"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="35"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
     </row>
     <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C82" s="18" t="s">
@@ -5009,88 +5016,88 @@
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="38"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="32"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="24" t="s">
+      <c r="C84" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="26"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="38"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="38"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="27" t="s">
+      <c r="C86" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="29"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="41"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="30" t="s">
+      <c r="C87" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="32"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="26"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="30" t="s">
+      <c r="C88" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="32"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="26"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="33" t="s">
+      <c r="C89" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="35"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="29"/>
     </row>
     <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C91" s="18" t="s">
@@ -5105,88 +5112,88 @@
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="38"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="24" t="s">
+      <c r="C93" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="26"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="38"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="24" t="s">
+      <c r="C94" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="26"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="38"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="27" t="s">
+      <c r="C95" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="29"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="41"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="32"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="26"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="30" t="s">
+      <c r="C97" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="32"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="26"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="33" t="s">
+      <c r="C98" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="35"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="29"/>
     </row>
     <row r="100" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C100" s="9"/>
@@ -5270,46 +5277,22 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="C69:J69"/>
@@ -5326,22 +5309,46 @@
     <mergeCell ref="C59:J59"/>
     <mergeCell ref="C60:J60"/>
     <mergeCell ref="C49:J49"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentatie/urenlijst_met_logboek.xlsx
+++ b/documentatie/urenlijst_met_logboek.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JP" sheetId="4" r:id="rId1"/>
     <sheet name="Lukasz" sheetId="2" r:id="rId2"/>
     <sheet name="Youssef" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="89">
   <si>
     <t>Dag:</t>
   </si>
@@ -307,11 +307,17 @@
   <si>
     <t>Maandag: planning afgemaakt checklist pva door aan het werken</t>
   </si>
+  <si>
+    <t>Dinsdag: PvA Risicos en kosten en baten</t>
+  </si>
+  <si>
+    <t>Maandag:Advise rapport, prototipe, use case diagram</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -784,6 +790,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -811,33 +835,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -859,6 +856,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -877,6 +880,21 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -887,15 +905,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -903,9 +912,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1191,29 +1197,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="47"/>
+      <c r="C1" s="54"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1239,7 +1245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1264,13 +1270,13 @@
       <c r="J5" s="16">
         <v>2</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1296,13 +1302,13 @@
         <v>2</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="O6" s="52" t="s">
+      <c r="O6" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1317,13 +1323,13 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1334,13 +1340,13 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1352,13 +1358,13 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1369,13 +1375,13 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1387,7 +1393,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1399,7 +1405,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1411,7 +1417,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1423,10 +1429,10 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1434,12 +1440,12 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>44</v>
@@ -1449,7 +1455,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -1461,7 +1467,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
       <c r="B18" s="17" t="s">
         <v>23</v>
@@ -1475,7 +1481,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="18" t="s">
@@ -1489,105 +1495,105 @@
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="20"/>
@@ -1599,7 +1605,7 @@
       <c r="I27" s="20"/>
       <c r="J27" s="21"/>
     </row>
-    <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="22" t="s">
@@ -1613,105 +1619,105 @@
       <c r="I28" s="20"/>
       <c r="J28" s="21"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="21"/>
@@ -1723,7 +1729,7 @@
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
     </row>
-    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="22" t="s">
@@ -1737,105 +1743,105 @@
       <c r="I37" s="20"/>
       <c r="J37" s="21"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="20"/>
@@ -1847,7 +1853,7 @@
       <c r="I45" s="20"/>
       <c r="J45" s="21"/>
     </row>
-    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="22" t="s">
@@ -1861,105 +1867,105 @@
       <c r="I46" s="20"/>
       <c r="J46" s="21"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="21"/>
@@ -1971,7 +1977,7 @@
       <c r="I54" s="21"/>
       <c r="J54" s="21"/>
     </row>
-    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="22" t="s">
@@ -1985,97 +1991,97 @@
       <c r="I55" s="20"/>
       <c r="J55" s="21"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="32"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="39" t="s">
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C59" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="24" t="s">
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C60" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="24" t="s">
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="27" t="s">
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C63" s="23"/>
       <c r="D63" s="23"/>
       <c r="E63" s="23"/>
@@ -2085,7 +2091,7 @@
       <c r="I63" s="23"/>
       <c r="J63" s="23"/>
     </row>
-    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C64" s="22" t="s">
         <v>36</v>
       </c>
@@ -2097,91 +2103,91 @@
       <c r="I64" s="20"/>
       <c r="J64" s="21"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="30" t="s">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C65" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="32"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="36" t="s">
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="36" t="s">
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C67" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="39" t="s">
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C68" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="41"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="24" t="s">
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="24" t="s">
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="27" t="s">
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
-    </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C72" s="23"/>
       <c r="D72" s="23"/>
       <c r="E72" s="23"/>
@@ -2191,7 +2197,7 @@
       <c r="I72" s="23"/>
       <c r="J72" s="23"/>
     </row>
-    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C73" s="22" t="s">
         <v>37</v>
       </c>
@@ -2203,91 +2209,91 @@
       <c r="I73" s="20"/>
       <c r="J73" s="21"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="30" t="s">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="32"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="36" t="s">
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C75" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="38"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="36" t="s">
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="38"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="39" t="s">
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C77" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="41"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="24" t="s">
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="29"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="24" t="s">
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="27" t="s">
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
-    </row>
-    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C81" s="23"/>
       <c r="D81" s="23"/>
       <c r="E81" s="23"/>
@@ -2297,7 +2303,7 @@
       <c r="I81" s="23"/>
       <c r="J81" s="23"/>
     </row>
-    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C82" s="22" t="s">
         <v>39</v>
       </c>
@@ -2309,91 +2315,91 @@
       <c r="I82" s="20"/>
       <c r="J82" s="21"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="30" t="s">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C83" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="32"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="36" t="s">
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C84" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="36" t="s">
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="26"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="38"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="39" t="s">
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C86" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="41"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="24" t="s">
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="29"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="24" t="s">
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C88" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="27" t="s">
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="29"/>
-    </row>
-    <row r="90" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
+    </row>
+    <row r="90" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C90" s="23"/>
       <c r="D90" s="23"/>
       <c r="E90" s="23"/>
@@ -2403,7 +2409,7 @@
       <c r="I90" s="23"/>
       <c r="J90" s="23"/>
     </row>
-    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C91" s="22" t="s">
         <v>38</v>
       </c>
@@ -2415,147 +2421,100 @@
       <c r="I91" s="20"/>
       <c r="J91" s="21"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="30" t="s">
+    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C92" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="36" t="s">
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C93" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="38"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="36" t="s">
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="26"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C94" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="38"/>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="39" t="s">
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="26"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C95" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="41"/>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="24" t="s">
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="29"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C96" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="26"/>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="24" t="s">
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="27" t="s">
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="29"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -2565,43 +2524,90 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="47"/>
+      <c r="C1" s="54"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2627,7 +2633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -2652,13 +2658,13 @@
       <c r="J5" s="16">
         <v>2</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2684,13 +2690,13 @@
         <v>44</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="O6" s="52" t="s">
+      <c r="O6" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
@@ -2705,13 +2711,13 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
@@ -2722,13 +2728,13 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -2740,13 +2746,13 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -2757,13 +2763,13 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -2775,7 +2781,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
@@ -2787,7 +2793,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -2799,7 +2805,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -2811,10 +2817,10 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2822,12 +2828,12 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>34</v>
@@ -2837,7 +2843,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -2849,7 +2855,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
       <c r="B18" s="17" t="s">
         <v>23</v>
@@ -2863,7 +2869,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="18" t="s">
@@ -2877,105 +2883,105 @@
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
@@ -2987,7 +2993,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="18" t="s">
@@ -3001,105 +3007,105 @@
       <c r="I28" s="9"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -3111,7 +3117,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="18" t="s">
@@ -3125,105 +3131,105 @@
       <c r="I37" s="9"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C38" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C39" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="9"/>
@@ -3235,7 +3241,7 @@
       <c r="I45" s="9"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="18" t="s">
@@ -3249,105 +3255,105 @@
       <c r="I46" s="9"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -3359,7 +3365,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="18" t="s">
@@ -3373,97 +3379,97 @@
       <c r="I55" s="9"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="32"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="39" t="s">
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C59" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="24" t="s">
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C60" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="24" t="s">
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="27" t="s">
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
-    </row>
-    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
+    </row>
+    <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C64" s="18" t="s">
         <v>36</v>
       </c>
@@ -3475,91 +3481,91 @@
       <c r="I64" s="9"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="30" t="s">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C65" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="32"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="36" t="s">
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="36" t="s">
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C67" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="39" t="s">
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C68" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="41"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="24" t="s">
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="24" t="s">
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="27" t="s">
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
-    </row>
-    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
+    </row>
+    <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C73" s="18" t="s">
         <v>37</v>
       </c>
@@ -3571,91 +3577,91 @@
       <c r="I73" s="9"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="30" t="s">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="32"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="36" t="s">
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C75" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="38"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="36" t="s">
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="38"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="39" t="s">
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C77" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="41"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="24" t="s">
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="29"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="24" t="s">
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="27" t="s">
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
-    </row>
-    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
+    </row>
+    <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C82" s="18" t="s">
         <v>39</v>
       </c>
@@ -3667,91 +3673,91 @@
       <c r="I82" s="9"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="30" t="s">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C83" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="32"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="36" t="s">
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C84" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="36" t="s">
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="26"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="38"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="39" t="s">
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C86" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="41"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="24" t="s">
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="29"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="24" t="s">
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C88" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="27" t="s">
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="29"/>
-    </row>
-    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
+    </row>
+    <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C91" s="18" t="s">
         <v>38</v>
       </c>
@@ -3763,147 +3769,100 @@
       <c r="I91" s="9"/>
       <c r="J91" s="6"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="30" t="s">
+    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C92" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="36" t="s">
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C93" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="38"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="36" t="s">
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="26"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C94" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="38"/>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="39" t="s">
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="26"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C95" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="41"/>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="24" t="s">
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="29"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C96" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="26"/>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="24" t="s">
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="27" t="s">
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="29"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -3913,43 +3872,90 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-    </row>
-    <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="47"/>
+      <c r="C1" s="54"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3975,7 +3981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -4000,13 +4006,13 @@
       <c r="J5" s="16">
         <v>4</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -4032,13 +4038,13 @@
         <v>44</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="O6" s="52" t="s">
+      <c r="O6" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
@@ -4053,13 +4059,13 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
@@ -4070,13 +4076,13 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -4088,13 +4094,13 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -4105,13 +4111,13 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -4123,7 +4129,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
@@ -4135,7 +4141,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
@@ -4147,7 +4153,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -4159,10 +4165,10 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -4170,12 +4176,12 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>60</v>
@@ -4185,7 +4191,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
@@ -4197,7 +4203,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
       <c r="B18" s="17" t="s">
         <v>23</v>
@@ -4211,7 +4217,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="18" t="s">
@@ -4225,105 +4231,105 @@
       <c r="I19" s="9"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="9"/>
@@ -4335,7 +4341,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="18" t="s">
@@ -4349,105 +4355,105 @@
       <c r="I28" s="9"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="57"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="61"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="60"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="57"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="60"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="57"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="63"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="64"/>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="60"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="57"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -4459,7 +4465,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="18" t="s">
@@ -4473,105 +4479,105 @@
       <c r="I37" s="9"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="9"/>
@@ -4583,7 +4589,7 @@
       <c r="I45" s="9"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="18" t="s">
@@ -4597,105 +4603,105 @@
       <c r="I46" s="9"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -4707,7 +4713,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="18" t="s">
@@ -4721,97 +4727,97 @@
       <c r="I55" s="9"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="32"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="39" t="s">
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C59" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="24" t="s">
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C60" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="24" t="s">
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="27" t="s">
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
-    </row>
-    <row r="64" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
+    </row>
+    <row r="64" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C64" s="18" t="s">
         <v>36</v>
       </c>
@@ -4823,91 +4829,91 @@
       <c r="I64" s="9"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="30" t="s">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C65" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="32"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="36" t="s">
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="36" t="s">
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C67" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="39" t="s">
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C68" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="41"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="24" t="s">
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="24" t="s">
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="27" t="s">
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
-    </row>
-    <row r="73" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
+    </row>
+    <row r="73" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C73" s="18" t="s">
         <v>37</v>
       </c>
@@ -4919,91 +4925,91 @@
       <c r="I73" s="9"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="30" t="s">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="32"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="36" t="s">
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C75" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="38"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="36" t="s">
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="38"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="39" t="s">
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C77" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="41"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="24" t="s">
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="29"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="24" t="s">
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="27" t="s">
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
-    </row>
-    <row r="82" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
+    </row>
+    <row r="82" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C82" s="18" t="s">
         <v>39</v>
       </c>
@@ -5015,91 +5021,91 @@
       <c r="I82" s="9"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="30" t="s">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C83" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="32"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="36" t="s">
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C84" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="36" t="s">
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="26"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="38"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="39" t="s">
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C86" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="41"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="24" t="s">
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="29"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="24" t="s">
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C88" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="27" t="s">
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="29"/>
-    </row>
-    <row r="91" spans="3:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
+    </row>
+    <row r="91" spans="3:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="C91" s="18" t="s">
         <v>38</v>
       </c>
@@ -5111,91 +5117,91 @@
       <c r="I91" s="9"/>
       <c r="J91" s="6"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="30" t="s">
+    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C92" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="36" t="s">
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C93" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="38"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="36" t="s">
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="26"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C94" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="38"/>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="39" t="s">
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="26"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C95" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="41"/>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="24" t="s">
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="29"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C96" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="26"/>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="24" t="s">
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="27" t="s">
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="29"/>
-    </row>
-    <row r="100" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
+    </row>
+    <row r="100" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
@@ -5205,7 +5211,7 @@
       <c r="I100" s="9"/>
       <c r="J100" s="6"/>
     </row>
-    <row r="101" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
@@ -5215,7 +5221,7 @@
       <c r="I101" s="13"/>
       <c r="J101" s="13"/>
     </row>
-    <row r="102" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
@@ -5225,7 +5231,7 @@
       <c r="I102" s="13"/>
       <c r="J102" s="13"/>
     </row>
-    <row r="103" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
@@ -5235,7 +5241,7 @@
       <c r="I103" s="13"/>
       <c r="J103" s="13"/>
     </row>
-    <row r="104" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
@@ -5245,7 +5251,7 @@
       <c r="I104" s="11"/>
       <c r="J104" s="11"/>
     </row>
-    <row r="105" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
@@ -5255,7 +5261,7 @@
       <c r="I105" s="12"/>
       <c r="J105" s="12"/>
     </row>
-    <row r="106" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
@@ -5265,7 +5271,7 @@
       <c r="I106" s="12"/>
       <c r="J106" s="12"/>
     </row>
-    <row r="107" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C107" s="14"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
@@ -5277,6 +5283,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C49:J49"/>
     <mergeCell ref="O6:Q6"/>
     <mergeCell ref="C87:J87"/>
     <mergeCell ref="O10:Q10"/>
@@ -5293,62 +5355,6 @@
     <mergeCell ref="C77:J77"/>
     <mergeCell ref="C78:J78"/>
     <mergeCell ref="C79:J79"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentatie/urenlijst_met_logboek.xlsx
+++ b/documentatie/urenlijst_met_logboek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="JP" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="90">
   <si>
     <t>Dag:</t>
   </si>
@@ -260,9 +260,6 @@
     <t>Donderdag: Mijn stuk van de PvA afgemaakt, ontwikkelingsmethode gemaakt, bezig met prototypes, bezig met de powerpoint van de prototypes en notule vergadering gemaakt.</t>
   </si>
   <si>
-    <t>Maandag: Gestart met PvE en advise rapport</t>
-  </si>
-  <si>
     <t>Dinsdag: Verder gewerekt aan PvE</t>
   </si>
   <si>
@@ -299,13 +296,25 @@
     <t>Maandag: Hoofdstuk 2 van de PvA smart formuleren, PvA verbetern en controleren of de PvA voldoet aan alle eisen(checklist PvA).</t>
   </si>
   <si>
-    <t>Dinsdag: Notule vergadering 2, PvA gecontroleerd, PvA aangepast en de PvA checklist geupdatet.</t>
-  </si>
-  <si>
     <t>Dinsdag: verder afgemaakt en planning bij gewerkt en begonnen prototype appliactie</t>
   </si>
   <si>
     <t>Maandag: planning afgemaakt checklist pva door aan het werken</t>
+  </si>
+  <si>
+    <t>Maandag: Gestart met PvE en adviesrapport</t>
+  </si>
+  <si>
+    <t>Maandag: Adviesrapport afgemaakt, bezig met de prototype en begonnen aan de use case diagram</t>
+  </si>
+  <si>
+    <t>Dinsdag: Pva risico's en kosten en baten gemaakt</t>
+  </si>
+  <si>
+    <t>Dinsdag: PvA gecontroleerd, PvA aangepast en de PvA checklist geupdatet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donderdag: Notule vergadering 2, </t>
   </si>
 </sst>
 </file>
@@ -784,6 +793,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -811,33 +838,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -859,6 +859,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -877,6 +883,21 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -887,15 +908,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -903,9 +915,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1195,17 +1204,17 @@
   <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
@@ -1244,19 +1253,19 @@
         <v>8</v>
       </c>
       <c r="D5" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" s="16" t="s">
         <v>44</v>
@@ -1264,30 +1273,30 @@
       <c r="J5" s="16">
         <v>2</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="44"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>44</v>
@@ -1296,32 +1305,38 @@
         <v>2</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="O6" s="52" t="s">
+      <c r="O6" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" s="16">
-        <v>4</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+        <v>3</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="16">
+        <v>3</v>
+      </c>
+      <c r="H7" s="16">
+        <v>3</v>
+      </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -1334,11 +1349,11 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -1352,11 +1367,11 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -1369,11 +1384,11 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
@@ -1424,9 +1439,9 @@
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1436,13 +1451,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -1492,100 +1507,100 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -1616,100 +1631,100 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
+      <c r="C30" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38"/>
+      <c r="C31" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
+      <c r="C32" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
+      <c r="C33" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -1740,100 +1755,100 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
+      <c r="C38" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="38"/>
+      <c r="C39" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -1864,100 +1879,100 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="29"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -1988,92 +2003,92 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="32"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C63" s="23"/>
@@ -2098,88 +2113,88 @@
       <c r="J64" s="21"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="32"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="39" t="s">
+      <c r="C68" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="41"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C72" s="23"/>
@@ -2204,88 +2219,88 @@
       <c r="J73" s="21"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="30" t="s">
+      <c r="C74" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="32"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="38"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="38"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="38"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="41"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="29"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C81" s="23"/>
@@ -2310,88 +2325,88 @@
       <c r="J82" s="21"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="32"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="38"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="38"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="26"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="38"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="39" t="s">
+      <c r="C86" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="41"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="29"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="24" t="s">
+      <c r="C87" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="29"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
     </row>
     <row r="90" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C90" s="23"/>
@@ -2416,146 +2431,99 @@
       <c r="J91" s="21"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="38"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="38"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="26"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="36" t="s">
+      <c r="C94" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="38"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="26"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="39" t="s">
+      <c r="C95" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="41"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="29"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="26"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="29"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="B15:D15"/>
@@ -2565,14 +2533,61 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <merg